--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midas\Desktop\IS_DEVELOPMENT\IS_456_BEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLIDSNAKE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="179">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -1368,6 +1368,12 @@
   </si>
   <si>
     <t>TORSION INPUT JUST BELOW SHEAR BOX</t>
+  </si>
+  <si>
+    <t>Torsion Input Box</t>
+  </si>
+  <si>
+    <t>ADD SUMMARY DETAILS</t>
   </si>
 </sst>
 </file>
@@ -2284,6 +2290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2302,16 +2314,73 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,62 +2410,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2418,39 +2451,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2479,11 +2479,17 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3050,6 +3056,112 @@
         <a:xfrm flipH="1">
           <a:off x="8292353" y="7295029"/>
           <a:ext cx="593912" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18254382" y="3496235"/>
+          <a:ext cx="369794" cy="448236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18624176" y="1624853"/>
+          <a:ext cx="1524000" cy="1826559"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6150,41 +6262,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -6206,22 +6318,22 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42952</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="133"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="135"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
@@ -6309,15 +6421,15 @@
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="196" t="s">
+      <c r="F21" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
-      <c r="L21" s="197"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="132"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -6357,8 +6469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6367,866 +6479,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="189"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="190"/>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="192"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="192"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="190"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="195"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="122">
         <v>1</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="184"/>
+      <c r="B5" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="195"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="123">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="184"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="195"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="123">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="184"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="195"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="123">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="184"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="195"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="123">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="184"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="195"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="123">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="184"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="195"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="123">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="184"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="195"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="123">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="195"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="123">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="184"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="195"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="123">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="184"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="195"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="123">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="184"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="195"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="123">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="184"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="195"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="123">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="184"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="195"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="123">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="184"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="195"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="123">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="184"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="195"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="123">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="184"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="195"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="123">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="184"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="195"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="123">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="184"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="195"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="123">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="184"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="195"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="123">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="184"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="195"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="123">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="184"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="195"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="123">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="184"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="195"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="123">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="184"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="195"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="123">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="184"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="195"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="123">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="184"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="195"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="123">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="184"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="195"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="123">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="184"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="195"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="123">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="184"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="195"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="123">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="184"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="195"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="123">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="184"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="194"/>
+      <c r="O34" s="195"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="123">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="183"/>
-      <c r="O35" s="184"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="195"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="123">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="184"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="195"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="123">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="183"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="184"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="195"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="123">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="183"/>
-      <c r="O38" s="184"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="194"/>
+      <c r="O38" s="195"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="123">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="184"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="195"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="123">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="183"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="184"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="194"/>
+      <c r="O40" s="195"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="123">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="183"/>
-      <c r="C41" s="183"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="183"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="183"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="184"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="195"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1">
       <c r="A42" s="124">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="185"/>
-      <c r="M42" s="185"/>
-      <c r="N42" s="185"/>
-      <c r="O42" s="186"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -7236,6 +7320,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7246,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="R6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7262,14 +7376,14 @@
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="M1" s="125"/>
       <c r="N1" s="125"/>
       <c r="O1" s="125"/>
@@ -7302,12 +7416,12 @@
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="125"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
@@ -7340,12 +7454,12 @@
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
       <c r="F3" s="125"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
@@ -7378,12 +7492,12 @@
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
       <c r="F4" s="125"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
       <c r="M4" s="125"/>
       <c r="N4" s="125"/>
       <c r="O4" s="125"/>
@@ -7432,6 +7546,11 @@
         <v>175</v>
       </c>
     </row>
+    <row r="9" spans="1:36">
+      <c r="AD9" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="13" spans="1:36">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
@@ -8458,84 +8577,84 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16">
@@ -8577,83 +8696,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O314"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A116" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="89" t="s">
@@ -8746,12 +8865,16 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
     </row>
+    <row r="314" spans="10:10">
+      <c r="J314" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8766,64 +8889,64 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -8910,14 +9033,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -8929,12 +9052,12 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
@@ -8946,12 +9069,12 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -8963,12 +9086,12 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
@@ -12742,14 +12865,14 @@
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
@@ -12763,12 +12886,12 @@
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
@@ -12782,12 +12905,12 @@
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
@@ -12801,12 +12924,12 @@
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
@@ -12893,24 +13016,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="143"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="164"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="121"/>
@@ -12920,22 +13043,22 @@
       <c r="W1" s="121"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="121"/>
       <c r="R2" s="121"/>
       <c r="S2" s="121"/>
@@ -12945,22 +13068,22 @@
       <c r="W2" s="121"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
       <c r="Q3" s="121"/>
       <c r="R3" s="121"/>
       <c r="S3" s="121"/>
@@ -12970,22 +13093,22 @@
       <c r="W3" s="121"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="149"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="170"/>
       <c r="Q4" s="121"/>
       <c r="R4" s="121"/>
       <c r="S4" s="121"/>
@@ -13104,757 +13227,757 @@
       <c r="E10" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="140"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="140"/>
+      <c r="K10" s="141"/>
       <c r="L10" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="140"/>
+      <c r="M10" s="141"/>
       <c r="N10" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="165"/>
-      <c r="P10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="148" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="156" t="s">
+      <c r="E11" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
       <c r="L11" s="102"/>
       <c r="M11" s="102"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="144"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="167"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="164"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="158" t="s">
+      <c r="E12" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="161"/>
       <c r="L12" s="102"/>
       <c r="M12" s="102"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="144"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="167"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="162" t="s">
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="138"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="102"/>
       <c r="M13" s="102"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="144"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="158" t="s">
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="161"/>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="167"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="163" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="156" t="s">
+      <c r="E15" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="102"/>
       <c r="M15" s="102"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="144"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="167"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="158" t="s">
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="144"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="167"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="163" t="s">
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="153" t="s">
+      <c r="D17" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="144"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="158" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="161"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="167"/>
-      <c r="B19" s="166" t="s">
+      <c r="A19" s="146"/>
+      <c r="B19" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="148" t="s">
         <v>162</v>
       </c>
       <c r="D19" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="156" t="s">
+      <c r="E19" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="144"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="164"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="158" t="s">
+      <c r="E20" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="162" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="156" t="s">
+      <c r="E21" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
       <c r="L21" s="102"/>
       <c r="M21" s="102"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="144"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="167"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="158" t="s">
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="161"/>
       <c r="L22" s="102"/>
       <c r="M22" s="102"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="144"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="163" t="s">
+      <c r="A23" s="146"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
       <c r="L23" s="102"/>
       <c r="M23" s="102"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="144"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="158" t="s">
+      <c r="A24" s="146"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
       <c r="L24" s="102"/>
       <c r="M24" s="102"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="93"/>
       <c r="R24" s="93"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="167"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="163" t="s">
+      <c r="A25" s="146"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="156" t="s">
+      <c r="E25" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="161"/>
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="144"/>
       <c r="Q25" s="93"/>
       <c r="R25" s="93"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="158" t="s">
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="161"/>
       <c r="L26" s="102"/>
       <c r="M26" s="102"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="144"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="93"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="166" t="s">
+      <c r="A27" s="146"/>
+      <c r="B27" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C27" s="148" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="161"/>
       <c r="L27" s="102"/>
       <c r="M27" s="102"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="144"/>
       <c r="Q27" s="93"/>
       <c r="R27" s="93"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="167"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="164"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="158" t="s">
+      <c r="E28" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
       <c r="L28" s="102"/>
       <c r="M28" s="102"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="144"/>
       <c r="Q28" s="93"/>
       <c r="R28" s="93"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="167"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="162" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="153" t="s">
+      <c r="D29" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="156" t="s">
+      <c r="E29" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="138"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
       <c r="L29" s="102"/>
       <c r="M29" s="102"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="144"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="167"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="158" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="161"/>
       <c r="L30" s="102"/>
       <c r="M30" s="102"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="144"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="167"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="163" t="s">
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="153" t="s">
+      <c r="D31" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E31" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="161"/>
       <c r="L31" s="102"/>
       <c r="M31" s="102"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="144"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="167"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="158" t="s">
+      <c r="A32" s="146"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="161"/>
       <c r="L32" s="102"/>
       <c r="M32" s="102"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="144"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="167"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="163" t="s">
+      <c r="A33" s="146"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="153" t="s">
+      <c r="D33" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="156" t="s">
+      <c r="E33" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
       <c r="L33" s="102"/>
       <c r="M33" s="102"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="144"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="167"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="158" t="s">
+      <c r="A34" s="146"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
       <c r="L34" s="102"/>
       <c r="M34" s="102"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="152"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="144"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="167"/>
-      <c r="B35" s="166" t="s">
+      <c r="A35" s="146"/>
+      <c r="B35" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="163" t="s">
+      <c r="C35" s="148" t="s">
         <v>122</v>
       </c>
       <c r="D35" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="138"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="161"/>
       <c r="L35" s="102"/>
       <c r="M35" s="102"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="152"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="144"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="167"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="164"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="158" t="s">
+      <c r="E36" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="138"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="161"/>
       <c r="L36" s="102"/>
       <c r="M36" s="102"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="152"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="144"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="167"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="162" t="s">
+      <c r="A37" s="146"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="156" t="s">
+      <c r="E37" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="138"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="161"/>
       <c r="L37" s="102"/>
       <c r="M37" s="102"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="152"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="144"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="167"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="158" t="s">
+      <c r="A38" s="146"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="138"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="161"/>
       <c r="L38" s="102"/>
       <c r="M38" s="102"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="152"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="144"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="167"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="163" t="s">
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="153" t="s">
+      <c r="D39" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="156" t="s">
+      <c r="E39" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="138"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="161"/>
       <c r="L39" s="102"/>
       <c r="M39" s="102"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="152"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="144"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="167"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="158" t="s">
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="138"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="161"/>
       <c r="L40" s="102"/>
       <c r="M40" s="102"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="152"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="143"/>
+      <c r="P40" s="144"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="167"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="163" t="s">
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="153" t="s">
+      <c r="D41" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="156" t="s">
+      <c r="E41" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="138"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="161"/>
       <c r="L41" s="102"/>
       <c r="M41" s="102"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="152"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="143"/>
+      <c r="P41" s="144"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="168"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="160" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="138"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="161"/>
       <c r="L42" s="102"/>
       <c r="M42" s="102"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="152"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="144"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="95"/>
@@ -13878,6 +14001,149 @@
     </row>
   </sheetData>
   <mergeCells count="167">
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
@@ -13902,149 +14168,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14069,66 +14192,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="181"/>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181" t="s">
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -14145,10 +14268,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="181"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -14241,14 +14364,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -14280,12 +14403,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="182"/>
-      <c r="B5" s="173" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
       <c r="E5" s="16"/>
       <c r="F5" s="115"/>
       <c r="G5" s="115"/>
@@ -14318,12 +14441,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="182"/>
-      <c r="B6" s="173" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="16"/>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
@@ -14356,12 +14479,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="182"/>
-      <c r="B7" s="173" t="s">
+      <c r="A7" s="172"/>
+      <c r="B7" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
       <c r="E7" s="16"/>
       <c r="F7" s="115"/>
       <c r="G7" s="115"/>
@@ -14431,66 +14554,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="181"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="181"/>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="181"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="181"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="181"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="181" t="s">
+      <c r="I10" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -14507,10 +14630,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="181"/>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -14607,10 +14730,10 @@
       <c r="B12" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="180"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -14643,13 +14766,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="173" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -14687,9 +14810,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="171"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="23" t="s">
         <v>142</v>
       </c>
@@ -14725,9 +14848,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="171"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="23" t="s">
         <v>143</v>
       </c>
@@ -14763,9 +14886,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="171"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="23" t="s">
         <v>144</v>
       </c>
@@ -14801,9 +14924,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="171"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="23" t="s">
         <v>145</v>
       </c>
@@ -14839,9 +14962,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="171"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="177"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="23" t="s">
         <v>146</v>
       </c>
@@ -14877,9 +15000,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="171"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="176" t="s">
+      <c r="A19" s="180"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="173" t="s">
         <v>147</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -14917,9 +15040,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="171"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="23" t="s">
         <v>142</v>
       </c>
@@ -14955,9 +15078,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="171"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="23" t="s">
         <v>143</v>
       </c>
@@ -14993,9 +15116,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="171"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="23" t="s">
         <v>144</v>
       </c>
@@ -15031,9 +15154,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="171"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="23" t="s">
         <v>145</v>
       </c>
@@ -15069,9 +15192,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="171"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="177"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="23" t="s">
         <v>146</v>
       </c>
@@ -15107,9 +15230,9 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="171"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="176" t="s">
+      <c r="A25" s="180"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="173" t="s">
         <v>148</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -15147,9 +15270,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="171"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="23" t="s">
         <v>142</v>
       </c>
@@ -15185,9 +15308,9 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="171"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="23" t="s">
         <v>143</v>
       </c>
@@ -15223,9 +15346,9 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="171"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
       <c r="D28" s="23" t="s">
         <v>144</v>
       </c>
@@ -15261,9 +15384,9 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="171"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
       <c r="D29" s="23" t="s">
         <v>145</v>
       </c>
@@ -15299,9 +15422,9 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="171"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="177"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="23" t="s">
         <v>146</v>
       </c>
@@ -15337,9 +15460,9 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="171"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="176" t="s">
+      <c r="A31" s="180"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="173" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="23" t="s">
@@ -15377,9 +15500,9 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="171"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
       <c r="D32" s="23" t="s">
         <v>142</v>
       </c>
@@ -15415,9 +15538,9 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="171"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
       <c r="D33" s="23" t="s">
         <v>143</v>
       </c>
@@ -15453,9 +15576,9 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="171"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
       <c r="D34" s="23" t="s">
         <v>144</v>
       </c>
@@ -15491,9 +15614,9 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="171"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
       <c r="D35" s="23" t="s">
         <v>145</v>
       </c>
@@ -15529,9 +15652,9 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="171"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="23" t="s">
         <v>146</v>
       </c>
@@ -15567,11 +15690,11 @@
       <c r="AH36" s="13"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="171"/>
-      <c r="B37" s="170" t="s">
+      <c r="A37" s="180"/>
+      <c r="B37" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="173" t="s">
         <v>126</v>
       </c>
       <c r="D37" s="118" t="s">
@@ -15609,9 +15732,9 @@
       <c r="AH37" s="13"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="171"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="177"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="175"/>
       <c r="D38" s="118" t="s">
         <v>151</v>
       </c>
@@ -15647,9 +15770,9 @@
       <c r="AH38" s="13"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="171"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="176" t="s">
+      <c r="A39" s="180"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="173" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="118" t="s">
@@ -15687,9 +15810,9 @@
       <c r="AH39" s="13"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="177"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="118" t="s">
         <v>152</v>
       </c>
@@ -15736,14 +15859,14 @@
       <c r="AS40" s="31"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="171"/>
-      <c r="B41" s="169" t="s">
+      <c r="A41" s="180"/>
+      <c r="B41" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="174" t="s">
+      <c r="C41" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="175"/>
+      <c r="D41" s="184"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -15787,12 +15910,12 @@
       <c r="AS41" s="31"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="171"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="174" t="s">
+      <c r="A42" s="180"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="183" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="175"/>
+      <c r="D42" s="184"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -15836,11 +15959,11 @@
       <c r="AS42" s="31"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="171"/>
-      <c r="B43" s="169" t="s">
+      <c r="A43" s="180"/>
+      <c r="B43" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="169" t="s">
+      <c r="C43" s="178" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="116" t="s">
@@ -15889,9 +16012,9 @@
       <c r="AS43" s="31"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="171"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
+      <c r="A44" s="180"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="116" t="s">
         <v>18</v>
       </c>
@@ -15938,9 +16061,9 @@
       <c r="AS44" s="31"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="171"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+      <c r="A45" s="180"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="116" t="s">
         <v>19</v>
       </c>
@@ -15987,9 +16110,9 @@
       <c r="AS45" s="31"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="171"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
+      <c r="A46" s="180"/>
+      <c r="B46" s="178"/>
+      <c r="C46" s="178"/>
       <c r="D46" s="116" t="s">
         <v>20</v>
       </c>
@@ -16036,9 +16159,9 @@
       <c r="AS46" s="31"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="171"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169" t="s">
+      <c r="A47" s="180"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="178" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="116" t="s">
@@ -16087,9 +16210,9 @@
       <c r="AS47" s="31"/>
     </row>
     <row r="48" spans="1:45">
-      <c r="A48" s="171"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
+      <c r="A48" s="180"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="116" t="s">
         <v>18</v>
       </c>
@@ -16136,9 +16259,9 @@
       <c r="AS48" s="31"/>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="171"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
+      <c r="A49" s="180"/>
+      <c r="B49" s="178"/>
+      <c r="C49" s="178"/>
       <c r="D49" s="116" t="s">
         <v>19</v>
       </c>
@@ -16185,9 +16308,9 @@
       <c r="AS49" s="31"/>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="171"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169" t="s">
+      <c r="A50" s="180"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="178" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="116" t="s">
@@ -16236,9 +16359,9 @@
       <c r="AS50" s="31"/>
     </row>
     <row r="51" spans="1:45">
-      <c r="A51" s="172"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
+      <c r="A51" s="181"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="178"/>
       <c r="D51" s="116" t="s">
         <v>18</v>
       </c>
@@ -16302,18 +16425,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B13:B36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A13:A51"/>
@@ -16330,6 +16441,18 @@
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B13:B36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midas\Desktop\IS_DEVELOPMENT\IS_456_BEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLIDSNAKE\Desktop\Project_IS_github\IS_456_BEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="217">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -1192,9 +1192,6 @@
     <t xml:space="preserve">             REPORT</t>
   </si>
   <si>
-    <t>DETAIL REPORT</t>
-  </si>
-  <si>
     <t xml:space="preserve">CODE PROVISION </t>
   </si>
   <si>
@@ -1330,13 +1327,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Double reinforcement deflection + skin reinforcement</t>
-  </si>
-  <si>
     <t>Summary Report</t>
-  </si>
-  <si>
-    <t>For T L deep Beam Change Moment Formullas</t>
   </si>
   <si>
     <t>MOMENT[+/-]</t>
@@ -1352,9 +1343,6 @@
   </si>
   <si>
     <t>MONTH (EX:Jan Feb Mar)</t>
-  </si>
-  <si>
-    <t>EXPECTED REPORT</t>
   </si>
   <si>
     <t>DESIGN+     DEVELOPMENT</t>
@@ -1417,9 +1405,6 @@
     <t>250, 350</t>
   </si>
   <si>
-    <t>Change short and long term defelction to Total Deflection</t>
-  </si>
-  <si>
     <t>Rename skin bar with side face reinforcement</t>
   </si>
   <si>
@@ -1449,12 +1434,163 @@
   <si>
     <t xml:space="preserve">                         </t>
   </si>
+  <si>
+    <t>Add Equivalent Moment</t>
+  </si>
+  <si>
+    <t>Remove Beta</t>
+  </si>
+  <si>
+    <t>Include Sesmic min max Ast if Seismic option is selected</t>
+  </si>
+  <si>
+    <t>Me = Mu + Mt</t>
+  </si>
+  <si>
+    <t>Max 0.025 of b d</t>
+  </si>
+  <si>
+    <t>snipp</t>
+  </si>
+  <si>
+    <t>Double Reinforcement Mu= Mulimit + M2</t>
+  </si>
+  <si>
+    <t>Detail Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change to Total Deflection </t>
+  </si>
+  <si>
+    <t>Add Creep and shrinkage Deflections</t>
+  </si>
+  <si>
+    <t>Total Strength V=Vc + Vs</t>
+  </si>
+  <si>
+    <t>Over view of Flow chat</t>
+  </si>
+  <si>
+    <t>Detail of FlowChat</t>
+  </si>
+  <si>
+    <t>Include T Torsion</t>
+  </si>
+  <si>
+    <t>Provide Equivalent Torsion</t>
+  </si>
+  <si>
+    <t>Add Equivalent Shear formula from Trosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Deflection Formulla </t>
+  </si>
+  <si>
+    <t>Span/350</t>
+  </si>
+  <si>
+    <t>Span/250</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ψ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>Double Reinforcement Equation</t>
+  </si>
+  <si>
+    <t>Replace short and long term defelction to Total Deflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change shortterm and longterm deflection to Total Deflection </t>
+  </si>
+  <si>
+    <t>Deflection</t>
+  </si>
+  <si>
+    <t>Deadload</t>
+  </si>
+  <si>
+    <t>LiveLoad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,8 +1721,27 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1668,12 +1823,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2357,9 +2506,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2381,25 +2534,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,62 +2642,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2506,39 +2683,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2567,13 +2711,20 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4590,6 +4741,43 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>653067</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="41004" t="1" b="1948"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13895294" y="17178617"/>
+          <a:ext cx="1112508" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7168,6 +7356,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>551670</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32718375" y="15925800"/>
+          <a:ext cx="6238095" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133090</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="7620000"/>
+          <a:ext cx="2076190" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7178,200 +7442,10 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151352</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>56405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2057400"/>
-          <a:ext cx="8380952" cy="5961905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>84686</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>84583</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8143875"/>
-          <a:ext cx="8314286" cy="9133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>656200</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>27706</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15335250"/>
-          <a:ext cx="8200000" cy="6952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>418019</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>132920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21850350"/>
-          <a:ext cx="8647619" cy="3438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>637152</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>132375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="25088850"/>
-          <a:ext cx="8180952" cy="7800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
       <xdr:colOff>189448</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>103632</xdr:rowOff>
@@ -7384,7 +7458,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7403,14 +7477,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>541996</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568330</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -7422,7 +7496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect b="13998"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -7440,13 +7514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>27543</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>160865</xdr:rowOff>
@@ -7459,7 +7533,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7478,13 +7552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>151352</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>46511</xdr:rowOff>
@@ -7497,7 +7571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7516,13 +7590,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>256114</xdr:colOff>
       <xdr:row>252</xdr:row>
       <xdr:rowOff>36948</xdr:rowOff>
@@ -7535,7 +7609,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7554,13 +7628,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>456200</xdr:colOff>
       <xdr:row>303</xdr:row>
       <xdr:rowOff>160751</xdr:rowOff>
@@ -7573,7 +7647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7592,16 +7666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>302</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>256227</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>56821</xdr:rowOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>124056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7611,7 +7685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7630,13 +7704,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>542086</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151453</xdr:rowOff>
@@ -7649,7 +7723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7668,13 +7742,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>170618</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>113621</xdr:rowOff>
@@ -7687,7 +7761,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7704,66 +7778,77 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>27543</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>151340</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27432000" y="1990725"/>
-          <a:ext cx="8257143" cy="8476190"/>
+        <a:xfrm flipV="1">
+          <a:off x="13963651" y="22012277"/>
+          <a:ext cx="5353049" cy="233360"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28289250" y="5476874"/>
-          <a:ext cx="3314700" cy="447675"/>
+          <a:off x="12249151" y="22126575"/>
+          <a:ext cx="1714500" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7803,26 +7888,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4483</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>164725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>137832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="22397196"/>
+          <a:ext cx="1766046" cy="331695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325350" y="22455187"/>
+          <a:ext cx="6953250" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="24945975"/>
+          <a:ext cx="619125" cy="1162049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31584900" y="4524375"/>
-          <a:ext cx="4791075" cy="971550"/>
+          <a:off x="12430125" y="24422100"/>
+          <a:ext cx="6829425" cy="1109662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7850,33 +8100,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352163</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>161868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="38" name="Picture 37"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:srcRect l="19412" t="22452" r="12722" b="64461"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36366450" y="3514725"/>
-          <a:ext cx="4162426" cy="1038226"/>
+          <a:off x="20897850" y="22145625"/>
+          <a:ext cx="2085714" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7887,33 +8138,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609436</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>114204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="39" name="Picture 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect l="16587" t="22133" r="9907" b="65439"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36337874" y="4953000"/>
-          <a:ext cx="4305301" cy="1000125"/>
+          <a:off x="19859625" y="24498300"/>
+          <a:ext cx="1323810" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7922,30 +8174,367 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2085714" cy="457143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20897850" y="22145625"/>
+          <a:ext cx="2085714" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323810" cy="771429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19859625" y="24498300"/>
+          <a:ext cx="1323810" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="23" idx="1"/>
+          <a:stCxn id="43" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31584900" y="5453063"/>
-          <a:ext cx="4752974" cy="290512"/>
+          <a:off x="14335126" y="30575250"/>
+          <a:ext cx="5353049" cy="233360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>161922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12620626" y="30689548"/>
+          <a:ext cx="1714500" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12068175" y="30841947"/>
+          <a:ext cx="619125" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696825" y="31018160"/>
+          <a:ext cx="6953250" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182475" y="33508948"/>
+          <a:ext cx="619125" cy="1162049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12801600" y="32985073"/>
+          <a:ext cx="6829425" cy="1109662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7973,107 +8562,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37838</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="48" name="Picture 47"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect l="35288" t="4615" r="32674" b="92781"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39557325" y="5238751"/>
-          <a:ext cx="1876425" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:srcRect l="24226" t="4803" r="44247" b="91835"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38528625" y="3533774"/>
-          <a:ext cx="1933575" cy="266701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:srcRect l="31179" t="27568" r="24863" b="64354"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36356925" y="6543675"/>
-          <a:ext cx="2457450" cy="600075"/>
+          <a:off x="21269325" y="30708598"/>
+          <a:ext cx="2085714" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8084,28 +8600,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677651" y="39947849"/>
+          <a:ext cx="1047750" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="29" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31623000" y="5895975"/>
-          <a:ext cx="4733925" cy="947738"/>
+        <a:xfrm flipV="1">
+          <a:off x="12725400" y="38861998"/>
+          <a:ext cx="6829425" cy="1109662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8129,6 +8702,1359 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142687</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>161893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="38995350"/>
+          <a:ext cx="1514286" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>174250</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>34179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857809" y="55794650"/>
+          <a:ext cx="2111749" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2980765" y="56175088"/>
+          <a:ext cx="5916706" cy="67237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360267</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421340</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727385" y="55670822"/>
+          <a:ext cx="2111749" cy="96371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387724</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>118785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3805518" y="54819176"/>
+          <a:ext cx="5069541" cy="880785"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635374</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292474</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>115980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2002492" y="21932713"/>
+          <a:ext cx="1707776" cy="236443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13066059" y="3440206"/>
+          <a:ext cx="280147" cy="1086970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13189324" y="1411941"/>
+          <a:ext cx="1154205" cy="2017059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10253382" y="8381999"/>
+          <a:ext cx="5804647" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16080441" y="8639735"/>
+          <a:ext cx="1098177" cy="2151530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>661146</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10230970" y="12035117"/>
+          <a:ext cx="5804647" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15963899" y="12209929"/>
+          <a:ext cx="1125071" cy="340659"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232648" y="45798441"/>
+          <a:ext cx="4134970" cy="515471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5390029" y="45832059"/>
+          <a:ext cx="4123765" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235883</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11048999" y="55267412"/>
+          <a:ext cx="123825" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665630</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9323295" y="55278617"/>
+          <a:ext cx="228600" cy="434788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>617556</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Subtitle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noGrp="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886265" y="55513941"/>
+          <a:ext cx="1301115" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>cp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = Δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i+cp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> –  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Δ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="-25000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="-25000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>682183</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>48139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9581029" y="56455234"/>
+          <a:ext cx="2038095" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>289386</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>80077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11665324" y="56477648"/>
+          <a:ext cx="2295238" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623047</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>656664</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306606" y="50545253"/>
+          <a:ext cx="4134970" cy="515471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679075</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5463987" y="50578871"/>
+          <a:ext cx="4123765" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>245409</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>110658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4346762" y="22701717"/>
+          <a:ext cx="9223562" cy="572901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>607919</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect l="19412" t="22452" r="12722" b="64461"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13547911" y="22288500"/>
+          <a:ext cx="4148979" cy="1028141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>567575</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>72277</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect l="16587" t="22133" r="9907" b="65439"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13555193" y="23657299"/>
+          <a:ext cx="4289613" cy="991721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544604</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197222</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10114428" y="14495929"/>
+          <a:ext cx="5804647" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8546,41 +10472,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -8602,118 +10528,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42955</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="133" t="s">
+      <c r="F14" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="136"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="129"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="F19" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="130" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="131"/>
+      <c r="F21" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="133"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -8763,866 +10689,836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="190"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="189"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="193"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="192"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="193"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="192"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="194"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="196"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="195"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="122">
         <v>1</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="185"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="197"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="123">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="185"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="197"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="123">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="185"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="123">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="185"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="197"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="123">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="185"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="197"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="123">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="185"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="197"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="123">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="185"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="197"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="123">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="197"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="123">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="185"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="197"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="123">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="184"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="185"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="197"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="123">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="185"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="197"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="123">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="185"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
+      <c r="N16" s="196"/>
+      <c r="O16" s="197"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="123">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="185"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="197"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="123">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="185"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="197"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="123">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="185"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="197"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="123">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="185"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="197"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="123">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="185"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="197"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="123">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="185"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="197"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="123">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="184"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="185"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="197"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="123">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="184"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="185"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="197"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="123">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="185"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="196"/>
+      <c r="O25" s="197"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="123">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="185"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="197"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="123">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="185"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="197"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="123">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="185"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="197"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="123">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="185"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="197"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="123">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="185"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="196"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="196"/>
+      <c r="O30" s="197"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="123">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="185"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="197"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="123">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="197"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="123">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="185"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="196"/>
+      <c r="N33" s="196"/>
+      <c r="O33" s="197"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="123">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="184"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="184"/>
-      <c r="O34" s="185"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="197"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="123">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="185"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
+      <c r="O35" s="197"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="123">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="185"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
+      <c r="M36" s="196"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="197"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="123">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="185"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="196"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="197"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="123">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="184"/>
-      <c r="L38" s="184"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="184"/>
-      <c r="O38" s="185"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="196"/>
+      <c r="M38" s="196"/>
+      <c r="N38" s="196"/>
+      <c r="O38" s="197"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="123">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="185"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
+      <c r="M39" s="196"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="197"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="123">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="184"/>
-      <c r="M40" s="184"/>
-      <c r="N40" s="184"/>
-      <c r="O40" s="185"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="196"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="197"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="123">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="185"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="197"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1">
       <c r="A42" s="124">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
-      <c r="L42" s="186"/>
-      <c r="M42" s="186"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="187"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="198"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -9632,6 +11528,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9642,14 +11568,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="19" max="19" width="9" style="26"/>
-    <col min="37" max="37" width="9" style="197"/>
+    <col min="37" max="37" width="9" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
@@ -9659,22 +11585,22 @@
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125"/>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
       <c r="M1" s="125"/>
       <c r="N1" s="125"/>
       <c r="O1" s="125"/>
       <c r="P1" s="125"/>
       <c r="Q1" s="125"/>
       <c r="R1" s="125"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
       <c r="U1" s="125"/>
       <c r="V1" s="125"/>
       <c r="W1" s="125"/>
@@ -9691,7 +11617,7 @@
       <c r="AH1" s="125"/>
       <c r="AI1" s="125"/>
       <c r="AJ1" s="125"/>
-      <c r="AK1" s="198"/>
+      <c r="AK1" s="128"/>
       <c r="AL1" s="125"/>
       <c r="AM1" s="125"/>
       <c r="AN1" s="125"/>
@@ -9717,20 +11643,20 @@
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
       <c r="M2" s="125"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="125"/>
       <c r="R2" s="125"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
       <c r="U2" s="125"/>
       <c r="V2" s="125"/>
       <c r="W2" s="125"/>
@@ -9747,7 +11673,7 @@
       <c r="AH2" s="125"/>
       <c r="AI2" s="125"/>
       <c r="AJ2" s="125"/>
-      <c r="AK2" s="198"/>
+      <c r="AK2" s="128"/>
       <c r="AL2" s="125"/>
       <c r="AM2" s="125"/>
       <c r="AN2" s="125"/>
@@ -9773,20 +11699,20 @@
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
       <c r="F3" s="125"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
       <c r="Q3" s="125"/>
       <c r="R3" s="125"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
       <c r="U3" s="125"/>
       <c r="V3" s="125"/>
       <c r="W3" s="125"/>
@@ -9803,7 +11729,7 @@
       <c r="AH3" s="125"/>
       <c r="AI3" s="125"/>
       <c r="AJ3" s="125"/>
-      <c r="AK3" s="198"/>
+      <c r="AK3" s="128"/>
       <c r="AL3" s="125"/>
       <c r="AM3" s="125"/>
       <c r="AN3" s="125"/>
@@ -9829,20 +11755,20 @@
       <c r="D4" s="125"/>
       <c r="E4" s="125"/>
       <c r="F4" s="125"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
       <c r="M4" s="125"/>
       <c r="N4" s="125"/>
       <c r="O4" s="125"/>
       <c r="P4" s="125"/>
       <c r="Q4" s="125"/>
       <c r="R4" s="125"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
       <c r="U4" s="125"/>
       <c r="V4" s="125"/>
       <c r="W4" s="125"/>
@@ -9859,7 +11785,7 @@
       <c r="AH4" s="125"/>
       <c r="AI4" s="125"/>
       <c r="AJ4" s="125"/>
-      <c r="AK4" s="198"/>
+      <c r="AK4" s="128"/>
       <c r="AL4" s="125"/>
       <c r="AM4" s="125"/>
       <c r="AN4" s="125"/>
@@ -9888,29 +11814,29 @@
       </c>
       <c r="U5" s="28"/>
       <c r="AK5" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL5" s="28"/>
     </row>
     <row r="6" spans="1:54" ht="14.25" customHeight="1">
       <c r="B6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="14.25" customHeight="1">
       <c r="B7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="AD9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AS9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -10834,7 +12760,7 @@
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="U58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -10919,22 +12845,22 @@
     </row>
     <row r="65" spans="3:13">
       <c r="M65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="3:13">
       <c r="C66" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="3:13">
       <c r="I67" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="3:13">
       <c r="I68" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="3:13">
@@ -10944,17 +12870,17 @@
     </row>
     <row r="88" spans="10:10">
       <c r="J88" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="10:10">
       <c r="J92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="9:19">
       <c r="I97" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="9:19">
@@ -10962,12 +12888,12 @@
     </row>
     <row r="120" spans="10:23">
       <c r="J120" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="10:23">
       <c r="W121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -10987,84 +12913,84 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16">
@@ -11106,87 +13032,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O344"/>
+  <dimension ref="A1:O349"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L344" sqref="L344"/>
+    <sheetView topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M208" sqref="M208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
+      <c r="A1" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -11205,7 +13131,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
@@ -11224,7 +13150,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -11243,7 +13169,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="87" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -11280,9 +13206,14 @@
     <row r="314" spans="10:10">
       <c r="J314" s="22"/>
     </row>
-    <row r="344" spans="12:12">
+    <row r="344" spans="11:12">
       <c r="L344" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="349" spans="11:12">
+      <c r="K349" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -11297,82 +13228,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM137"/>
+  <dimension ref="A1:CM141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="CR37" sqref="CR37"/>
+    <sheetView tabSelected="1" topLeftCell="AT78" workbookViewId="0">
+      <selection activeCell="BJ108" sqref="BJ108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -11384,53 +13315,68 @@
     </row>
     <row r="10" spans="1:30">
       <c r="AD10" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="N31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="73:91">
       <c r="BU34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="73:91">
       <c r="CE36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="73:91">
       <c r="BU37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="73:91">
-      <c r="CM38" s="200">
+      <c r="CM38" s="129">
         <v>41.3</v>
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="199" t="s">
-        <v>173</v>
-      </c>
-      <c r="J56" s="199"/>
-      <c r="K56" s="199"/>
-      <c r="L56" s="199"/>
+      <c r="I56" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
       <c r="BU56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="73:73">
       <c r="BU67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="35:35">
+      <c r="AI141" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11448,8 +13394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR118"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
+    <sheetView topLeftCell="P86" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z122" sqref="Z122:AF122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11468,14 +13414,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -11487,12 +13433,12 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
@@ -11504,12 +13450,12 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -11521,12 +13467,12 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
@@ -11781,7 +13727,7 @@
       <c r="AB16" s="54"/>
       <c r="AC16" s="71"/>
       <c r="AD16" s="51" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AE16" s="52"/>
       <c r="AF16" s="52"/>
@@ -11830,7 +13776,7 @@
       </c>
       <c r="P17" s="31"/>
       <c r="S17" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T17" s="31">
         <f>O17/O18</f>
@@ -11905,7 +13851,7 @@
       <c r="AB18" s="32"/>
       <c r="AC18" s="72"/>
       <c r="AD18" s="30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AE18" s="31">
         <v>10000</v>
@@ -12017,7 +13963,7 @@
       <c r="AB20" s="32"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31">
@@ -12128,7 +14074,7 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="72"/>
       <c r="AD22" s="30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31">
@@ -13364,12 +15310,10 @@
       <c r="AB47" s="54"/>
       <c r="AC47" s="74"/>
       <c r="AD47" s="51" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="AE47" s="60"/>
-      <c r="AF47" s="60" t="s">
-        <v>78</v>
-      </c>
+      <c r="AF47" s="60"/>
       <c r="AG47" s="53"/>
       <c r="AH47" s="53"/>
       <c r="AI47" s="53"/>
@@ -13429,9 +15373,13 @@
       <c r="AA48" s="31"/>
       <c r="AB48" s="32"/>
       <c r="AC48" s="72"/>
-      <c r="AD48" s="30"/>
+      <c r="AD48" s="30" t="s">
+        <v>215</v>
+      </c>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
+      <c r="AF48" s="31">
+        <v>10</v>
+      </c>
       <c r="AG48" s="31"/>
       <c r="AH48" s="31"/>
       <c r="AI48" s="31"/>
@@ -13485,9 +15433,13 @@
       <c r="AA49" s="31"/>
       <c r="AB49" s="32"/>
       <c r="AC49" s="72"/>
-      <c r="AD49" s="30"/>
+      <c r="AD49" s="30" t="s">
+        <v>216</v>
+      </c>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
+      <c r="AF49" s="31">
+        <v>5</v>
+      </c>
       <c r="AG49" s="31"/>
       <c r="AH49" s="31"/>
       <c r="AI49" s="31"/>
@@ -13599,7 +15551,9 @@
       <c r="AA51" s="31"/>
       <c r="AB51" s="32"/>
       <c r="AC51" s="72"/>
-      <c r="AD51" s="30"/>
+      <c r="AD51" s="30" t="s">
+        <v>214</v>
+      </c>
       <c r="AE51" s="31"/>
       <c r="AF51" s="31"/>
       <c r="AG51" s="31"/>
@@ -17079,28 +19033,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI37"/>
+  <dimension ref="A1:AD314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z81" sqref="Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:30">
       <c r="A1" s="67"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
@@ -17108,18 +19062,18 @@
       <c r="P1" s="67"/>
       <c r="Q1" s="67"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:30">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
@@ -17127,18 +19081,18 @@
       <c r="P2" s="67"/>
       <c r="Q2" s="67"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:30">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
@@ -17146,18 +19100,18 @@
       <c r="P3" s="67"/>
       <c r="Q3" s="67"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:30">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
@@ -17165,47 +19119,135 @@
       <c r="P4" s="67"/>
       <c r="Q4" s="67"/>
     </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="AO10" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP10" s="126"/>
-      <c r="AQ10" s="126"/>
-      <c r="AR10" s="126"/>
-      <c r="AS10" s="126"/>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="6:61">
-      <c r="F18" s="24"/>
-    </row>
-    <row r="20" spans="6:61">
-      <c r="BH20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="6:61">
-      <c r="BI28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="58:58">
-      <c r="BF37" t="s">
-        <v>79</v>
+    <row r="8" spans="1:30">
+      <c r="V8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="O11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="26:26">
+      <c r="Z61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="26:26">
+      <c r="Z70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="26:26">
+      <c r="Z81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="14:18">
+      <c r="O122" t="s">
+        <v>190</v>
+      </c>
+      <c r="R122" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="14:18">
+      <c r="N125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="14:21">
+      <c r="N135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="14:21">
+      <c r="U139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="14:21">
+      <c r="O142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="14:18">
+      <c r="O168" t="s">
+        <v>190</v>
+      </c>
+      <c r="R168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="14:18">
+      <c r="N171" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="14:15">
+      <c r="N181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="14:15">
+      <c r="O188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="15:16">
+      <c r="O257" t="s">
+        <v>208</v>
+      </c>
+      <c r="P257" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="306" spans="14:14">
+      <c r="N306" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="307" spans="14:14" ht="18.75">
+      <c r="N307" s="200" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="309" spans="14:14" ht="18.75">
+      <c r="N309" s="200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="314" spans="14:14">
+      <c r="N314" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -17213,7 +19255,8 @@
     <mergeCell ref="F1:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17244,24 +19287,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="144"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="121"/>
@@ -17271,22 +19314,22 @@
       <c r="W1" s="121"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
       <c r="Q2" s="121"/>
       <c r="R2" s="121"/>
       <c r="S2" s="121"/>
@@ -17296,22 +19339,22 @@
       <c r="W2" s="121"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
       <c r="Q3" s="121"/>
       <c r="R3" s="121"/>
       <c r="S3" s="121"/>
@@ -17321,22 +19364,22 @@
       <c r="W3" s="121"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="150"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
       <c r="Q4" s="121"/>
       <c r="R4" s="121"/>
       <c r="S4" s="121"/>
@@ -17391,7 +19434,7 @@
     <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="108"/>
       <c r="B7" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="91"/>
       <c r="D7" s="110"/>
@@ -17449,763 +19492,763 @@
       <c r="A10" s="97"/>
       <c r="B10" s="98"/>
       <c r="C10" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="100"/>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="143"/>
+      <c r="J10" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="143"/>
+      <c r="L10" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="143"/>
+      <c r="N10" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="141"/>
-      <c r="J10" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="140" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="141"/>
-      <c r="N10" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="166"/>
-      <c r="P10" s="141"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="167" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="164" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="163"/>
       <c r="L11" s="102"/>
       <c r="M11" s="102"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="153"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="168"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="165"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="139"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="163"/>
       <c r="L12" s="102"/>
       <c r="M12" s="102"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="153"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="168"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="157" t="s">
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="139"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="102"/>
       <c r="M13" s="102"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="153"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="146"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="168"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="159" t="s">
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="139"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="153"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="164" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="157" t="s">
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="139"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="102"/>
       <c r="M15" s="102"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="168"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="159" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="139"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="153"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="164" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="157" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="153"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="146"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="168"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="159" t="s">
+      <c r="A18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="163"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="153"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="168"/>
-      <c r="B19" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="164" t="s">
-        <v>158</v>
+      <c r="A19" s="148"/>
+      <c r="B19" s="147" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="150" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="139"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="163"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="153"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="146"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="168"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="165"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="139"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="163"/>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="157" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="139"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="163"/>
       <c r="L21" s="102"/>
       <c r="M21" s="102"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="153"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="168"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="159" t="s">
+      <c r="A22" s="148"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="139"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
       <c r="L22" s="102"/>
       <c r="M22" s="102"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="168"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="164" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="157" t="s">
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="139"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="163"/>
       <c r="L23" s="102"/>
       <c r="M23" s="102"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="153"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="168"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="159" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="139"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="163"/>
       <c r="L24" s="102"/>
       <c r="M24" s="102"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="153"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
       <c r="Q24" s="93"/>
       <c r="R24" s="93"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="168"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="164" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="157" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="139"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="163"/>
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="153"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="146"/>
       <c r="Q25" s="93"/>
       <c r="R25" s="93"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="168"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="159" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="163"/>
       <c r="L26" s="102"/>
       <c r="M26" s="102"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="146"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="93"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="168"/>
-      <c r="B27" s="167" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="164" t="s">
-        <v>158</v>
+      <c r="C27" s="150" t="s">
+        <v>155</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="163"/>
       <c r="L27" s="102"/>
       <c r="M27" s="102"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="153"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
       <c r="Q27" s="93"/>
       <c r="R27" s="93"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="168"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="165"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="151"/>
       <c r="D28" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="139"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="102"/>
       <c r="M28" s="102"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="153"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="93"/>
       <c r="R28" s="93"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="168"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="157" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="139"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="163"/>
       <c r="L29" s="102"/>
       <c r="M29" s="102"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="153"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="168"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="159" t="s">
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
       <c r="L30" s="102"/>
       <c r="M30" s="102"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="146"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="168"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="164" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="157" t="s">
+      <c r="A31" s="148"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="139"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="163"/>
       <c r="L31" s="102"/>
       <c r="M31" s="102"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="146"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="168"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="159" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="139"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="163"/>
       <c r="L32" s="102"/>
       <c r="M32" s="102"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="153"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="146"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="168"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="164" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="157" t="s">
+      <c r="A33" s="148"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="139"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="102"/>
       <c r="M33" s="102"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="146"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="168"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="159" t="s">
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="139"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="102"/>
       <c r="M34" s="102"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="153"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="146"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="168"/>
-      <c r="B35" s="167" t="s">
+      <c r="A35" s="148"/>
+      <c r="B35" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="164" t="s">
-        <v>118</v>
+      <c r="C35" s="150" t="s">
+        <v>117</v>
       </c>
       <c r="D35" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="139"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="102"/>
       <c r="M35" s="102"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="153"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="146"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="168"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="165"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="151"/>
       <c r="D36" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="139"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="102"/>
       <c r="M36" s="102"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="153"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="146"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="157" t="s">
+      <c r="A37" s="148"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="139"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="102"/>
       <c r="M37" s="102"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="153"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="146"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="168"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="159" t="s">
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="139"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="102"/>
       <c r="M38" s="102"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="153"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="146"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="168"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="164" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="157" t="s">
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="139"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="102"/>
       <c r="M39" s="102"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="153"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="146"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="168"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="159" t="s">
+      <c r="A40" s="148"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="139"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="163"/>
       <c r="L40" s="102"/>
       <c r="M40" s="102"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="153"/>
+      <c r="N40" s="144"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="146"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="168"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="164" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="154" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="157" t="s">
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="139"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="163"/>
       <c r="L41" s="102"/>
       <c r="M41" s="102"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="153"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="146"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="169"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="161" t="s">
+      <c r="A42" s="149"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="139"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="163"/>
       <c r="L42" s="102"/>
       <c r="M42" s="102"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="153"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="146"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="95"/>
@@ -18229,6 +20272,149 @@
     </row>
   </sheetData>
   <mergeCells count="167">
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
@@ -18253,149 +20439,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18420,66 +20463,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="182"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="182"/>
-      <c r="AH1" s="182"/>
+      <c r="A1" s="173"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -18496,10 +20539,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -18592,14 +20635,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="183" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
+      <c r="A4" s="174" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -18631,12 +20674,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="183"/>
-      <c r="B5" s="174" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="184" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="16"/>
       <c r="F5" s="115"/>
       <c r="G5" s="115"/>
@@ -18669,12 +20712,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="183"/>
-      <c r="B6" s="174" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="16"/>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
@@ -18707,12 +20750,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="183"/>
-      <c r="B7" s="174" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="184" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="16"/>
       <c r="F7" s="115"/>
       <c r="G7" s="115"/>
@@ -18782,66 +20825,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="182"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="182"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="182" t="s">
+      <c r="I10" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -18858,10 +20901,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="182"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -18956,12 +20999,12 @@
     <row r="12" spans="1:35">
       <c r="A12" s="117"/>
       <c r="B12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="181"/>
+        <v>135</v>
+      </c>
+      <c r="C12" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="179"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -18994,17 +21037,17 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="177" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="177" t="s">
-        <v>116</v>
+      <c r="A13" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -19038,11 +21081,11 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="172"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
       <c r="D14" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -19076,11 +21119,11 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="172"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
       <c r="D15" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -19114,11 +21157,11 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="172"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -19152,11 +21195,11 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="172"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -19190,11 +21233,11 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="172"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="178"/>
+      <c r="A18" s="182"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -19228,13 +21271,13 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="172"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="177" t="s">
-        <v>143</v>
+      <c r="A19" s="182"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="175" t="s">
+        <v>142</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -19268,11 +21311,11 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="172"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -19306,11 +21349,11 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="172"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -19344,11 +21387,11 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="172"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -19382,11 +21425,11 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="172"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -19420,11 +21463,11 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="172"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="178"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
       <c r="D24" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -19458,13 +21501,13 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="172"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="177" t="s">
-        <v>144</v>
+      <c r="A25" s="182"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="175" t="s">
+        <v>143</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -19498,11 +21541,11 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="172"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -19536,11 +21579,11 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="172"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
       <c r="D27" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -19574,11 +21617,11 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="172"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
       <c r="D28" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -19612,11 +21655,11 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="172"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -19650,11 +21693,11 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="172"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="178"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
       <c r="D30" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -19688,13 +21731,13 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="172"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="177" t="s">
+      <c r="A31" s="182"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="175" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -19728,11 +21771,11 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="172"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -19766,11 +21809,11 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="172"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
       <c r="D33" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -19804,11 +21847,11 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="172"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
       <c r="D34" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -19842,11 +21885,11 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="172"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
+      <c r="A35" s="182"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
       <c r="D35" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -19880,11 +21923,11 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="172"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
+      <c r="A36" s="182"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
       <c r="D36" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -19918,15 +21961,15 @@
       <c r="AH36" s="13"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="172"/>
-      <c r="B37" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="177" t="s">
-        <v>122</v>
+      <c r="A37" s="182"/>
+      <c r="B37" s="181" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="175" t="s">
+        <v>121</v>
       </c>
       <c r="D37" s="118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -19960,11 +22003,11 @@
       <c r="AH37" s="13"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="172"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="178"/>
+      <c r="A38" s="182"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="177"/>
       <c r="D38" s="118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -19998,13 +22041,13 @@
       <c r="AH38" s="13"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="177" t="s">
+      <c r="A39" s="182"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="175" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -20038,11 +22081,11 @@
       <c r="AH39" s="13"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="178"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="177"/>
       <c r="D40" s="118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -20087,14 +22130,14 @@
       <c r="AS40" s="31"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="172"/>
-      <c r="B41" s="170" t="s">
+      <c r="A41" s="182"/>
+      <c r="B41" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="176"/>
+      <c r="D41" s="186"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -20138,12 +22181,12 @@
       <c r="AS41" s="31"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="172"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="175" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="176"/>
+      <c r="A42" s="182"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="185" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="186"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -20187,11 +22230,11 @@
       <c r="AS42" s="31"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="172"/>
-      <c r="B43" s="170" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="170" t="s">
+      <c r="A43" s="182"/>
+      <c r="B43" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="180" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="116" t="s">
@@ -20240,9 +22283,9 @@
       <c r="AS43" s="31"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="172"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="A44" s="182"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
       <c r="D44" s="116" t="s">
         <v>18</v>
       </c>
@@ -20289,9 +22332,9 @@
       <c r="AS44" s="31"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="172"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="A45" s="182"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="180"/>
       <c r="D45" s="116" t="s">
         <v>19</v>
       </c>
@@ -20338,9 +22381,9 @@
       <c r="AS45" s="31"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="172"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="A46" s="182"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
       <c r="D46" s="116" t="s">
         <v>20</v>
       </c>
@@ -20387,9 +22430,9 @@
       <c r="AS46" s="31"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="172"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170" t="s">
+      <c r="A47" s="182"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="116" t="s">
@@ -20438,9 +22481,9 @@
       <c r="AS47" s="31"/>
     </row>
     <row r="48" spans="1:45">
-      <c r="A48" s="172"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="180"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="116" t="s">
         <v>18</v>
       </c>
@@ -20487,9 +22530,9 @@
       <c r="AS48" s="31"/>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="172"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="180"/>
+      <c r="C49" s="180"/>
       <c r="D49" s="116" t="s">
         <v>19</v>
       </c>
@@ -20536,9 +22579,9 @@
       <c r="AS49" s="31"/>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="172"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170" t="s">
+      <c r="A50" s="182"/>
+      <c r="B50" s="180"/>
+      <c r="C50" s="180" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="116" t="s">
@@ -20587,9 +22630,9 @@
       <c r="AS50" s="31"/>
     </row>
     <row r="51" spans="1:45">
-      <c r="A51" s="173"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
       <c r="D51" s="116" t="s">
         <v>18</v>
       </c>
@@ -20653,18 +22696,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B13:B36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A13:A51"/>
@@ -20681,6 +22712,18 @@
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B13:B36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -13230,8 +13230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT78" workbookViewId="0">
-      <selection activeCell="BJ108" sqref="BJ108"/>
+    <sheetView tabSelected="1" topLeftCell="AE106" workbookViewId="0">
+      <selection activeCell="AV113" sqref="AV113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midas\Desktop\IS_DEVELOPMENT\IS_456_BEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLIDSNAKE\Desktop\Project_IS_github\IS_456_BEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="234">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -1324,13 +1324,7 @@
     <t>TORSION INPUT JUST BELOW SHEAR BOX</t>
   </si>
   <si>
-    <t>Torsion data Box</t>
-  </si>
-  <si>
     <t>CHECKMODE</t>
-  </si>
-  <si>
-    <t>Include Torsion data</t>
   </si>
   <si>
     <t>FLEXURE  A  A'</t>
@@ -1412,9 +1406,6 @@
   </si>
   <si>
     <t>Detail of FlowChat</t>
-  </si>
-  <si>
-    <t>Include T Torsion</t>
   </si>
   <si>
     <t>Provide Equivalent Torsion</t>
@@ -1557,9 +1548,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Just Keep check mark as Apply Design IS 13920</t>
   </si>
   <si>
     <t>OverviewFlow chat</t>
@@ -2699,10 +2687,79 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,77 +2789,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2825,37 +2828,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,6 +2860,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3303,65 +3291,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355227</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>58270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3098427" y="7297270"/>
-          <a:ext cx="6410884" cy="87406"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -3447,28 +3376,66 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>322658</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>118877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13037693" y="11631706"/>
+          <a:ext cx="11209524" cy="8209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>642145</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>74057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>91110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18254382" y="3496235"/>
-          <a:ext cx="369794" cy="448236"/>
+          <a:off x="15766188" y="16291405"/>
+          <a:ext cx="2364442" cy="199270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,345 +3467,30 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tv                             : 0.000KN-m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18624176" y="1624853"/>
-          <a:ext cx="1524000" cy="1826559"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>22409</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24630527" y="1972235"/>
-          <a:ext cx="12281649" cy="9704294"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29348206" y="4280647"/>
-          <a:ext cx="212912" cy="739587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>61633</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="29454662" y="1602441"/>
-          <a:ext cx="689161" cy="2678206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>50075</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>322658</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>118877</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13057653" y="11586882"/>
-          <a:ext cx="11226333" cy="8177308"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>616322</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15721852" y="16114058"/>
-          <a:ext cx="1983441" cy="123265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15508942" y="16170088"/>
-          <a:ext cx="459440" cy="5356414"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3862,7 +3514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3877,112 +3529,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="15744265" y="21683382"/>
-          <a:ext cx="5558117" cy="2678206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21201530" y="24249529"/>
-          <a:ext cx="201705" cy="425824"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4006,7 +3552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4044,7 +3590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4380,60 +3926,6 @@
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>181376</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121844</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Oval 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5664927" y="5735918"/>
-          <a:ext cx="1996800" cy="1630489"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5162,168 +4654,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>241518</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>410765</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130263</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Oval 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18725971" y="3125391"/>
-          <a:ext cx="1538466" cy="1648310"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>491613</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>102419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>594033</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>174113</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Oval 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21764113" y="24437258"/>
-          <a:ext cx="1474839" cy="1362178"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>491613</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>20485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>71694</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Oval 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17646855" y="15506291"/>
-          <a:ext cx="1884516" cy="1710403"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>299125</xdr:colOff>
       <xdr:row>95</xdr:row>
@@ -5510,60 +4840,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>359433</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>386391</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161746</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Oval 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29725188" y="3639269"/>
-          <a:ext cx="2075731" cy="1913986"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>250031</xdr:colOff>
       <xdr:row>93</xdr:row>
@@ -5619,6 +4895,772 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353690</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>178510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629914</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>178509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3108613" y="6589568"/>
+          <a:ext cx="6474801" cy="2747595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>377208</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>615892</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3132131" y="7392519"/>
+          <a:ext cx="6437261" cy="154211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>375743</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>614427</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130666" y="8731880"/>
+          <a:ext cx="6437261" cy="375485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>393245</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="27075" t="18581" b="70350"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15457713" y="3197679"/>
+          <a:ext cx="6706961" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>46425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18416068" y="3409789"/>
+          <a:ext cx="824432" cy="441032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>24849</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>256762</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>62711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="58711" t="18581" r="31397" b="70350"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21336001" y="24425413"/>
+          <a:ext cx="919370" cy="783298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>281608</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21319435" y="24632478"/>
+          <a:ext cx="960782" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>58269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24608119" y="1916205"/>
+          <a:ext cx="12239625" cy="9616888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>49628</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29442657" y="4149376"/>
+          <a:ext cx="779608" cy="826035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299125</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>48178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242620</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>26988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13286743" y="28018060"/>
+          <a:ext cx="627053" cy="158104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Torsion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>42224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>528179</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>21034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14147425" y="28012106"/>
+          <a:ext cx="735489" cy="158104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>555879</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>36271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>339328</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>15081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14910614" y="28006153"/>
+          <a:ext cx="467008" cy="158104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kN-M</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9201,8 +9243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7744012" y="16872857"/>
-          <a:ext cx="6089108" cy="9352657"/>
+          <a:off x="7803883" y="17318182"/>
+          <a:ext cx="6138094" cy="9605007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9358,61 +9400,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>34019</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>141174</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>172226</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15877836" y="14500112"/>
-          <a:ext cx="8373494" cy="9425083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -9525,14 +9512,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>110557</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>170090</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>156823</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>116466</xdr:rowOff>
+      <xdr:rowOff>154566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9542,7 +9529,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9556,61 +9543,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15954374" y="24280246"/>
-          <a:ext cx="8312605" cy="17627158"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>85043</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>319189</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="42656" t="42364" r="40853" b="49165"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19696339" y="14551137"/>
-          <a:ext cx="599837" cy="552791"/>
+          <a:off x="15883957" y="25925690"/>
+          <a:ext cx="8275866" cy="18805876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9724,7 +9658,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9762,7 +9696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect b="49907"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -9799,7 +9733,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:srcRect t="52271"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -9817,16 +9751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>450737</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>8505</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>584087</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>141855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>555487</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>46605</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>3037</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>179955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9836,7 +9770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9850,8 +9784,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="24560893" y="14831786"/>
-          <a:ext cx="11815398" cy="10039350"/>
+          <a:off x="15671687" y="15381855"/>
+          <a:ext cx="11763350" cy="10706100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9891,7 +9825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9946,7 +9880,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9962,6 +9896,59 @@
         <a:xfrm>
           <a:off x="61850" y="39522565"/>
           <a:ext cx="6781460" cy="19609161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>319189</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="42656" t="42364" r="40853" b="49165"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19696339" y="14551137"/>
+          <a:ext cx="599837" cy="552791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10313,44 +10300,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>542086</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>151453</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19888200" y="1990725"/>
-          <a:ext cx="6714286" cy="7571428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -10369,7 +10318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10727,7 +10676,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10765,7 +10714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10798,7 +10747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10831,7 +10780,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11189,7 +11138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11333,7 +11282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11623,171 +11572,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Rectangle 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13066059" y="3440206"/>
-          <a:ext cx="280147" cy="1086970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13189324" y="1411941"/>
-          <a:ext cx="1154205" cy="2017059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Rectangle 74"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10253382" y="8381999"/>
-          <a:ext cx="5804647" cy="257735"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
       <xdr:row>48</xdr:row>
@@ -11831,65 +11615,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10230970" y="12035117"/>
-          <a:ext cx="5804647" cy="257735"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -12066,7 +11791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -12131,7 +11856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -12324,7 +12049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12362,7 +12087,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12553,7 +12278,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:srcRect l="19412" t="22452" r="12722" b="64461"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -12590,7 +12315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:srcRect l="16587" t="22133" r="9907" b="65439"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -12604,65 +12329,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>544604</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>197222</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>51546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Rectangle 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10114428" y="14495929"/>
-          <a:ext cx="5804647" cy="257735"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="37000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -12686,7 +12352,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:srcRect l="47085" t="66918" r="23397" b="7076"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -12723,7 +12389,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:srcRect l="45349" t="30446" r="25133" b="40567"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -12786,32 +12452,92 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>292554</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10069286" y="2136321"/>
+          <a:ext cx="6551839" cy="7237639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119261</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvPr id="72" name="Rectangle 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12965206" y="3059206"/>
-          <a:ext cx="1703294" cy="1792941"/>
+          <a:off x="13046047" y="3394583"/>
+          <a:ext cx="765203" cy="1072562"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12838,6 +12564,118 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>625930</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10055679" y="8189897"/>
+          <a:ext cx="5538108" cy="232924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>398690</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10042072" y="14178643"/>
+          <a:ext cx="6004832" cy="1046389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13311,7 +13149,7 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42956</v>
+        <v>42957</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
@@ -13485,24 +13323,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="157"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="180"/>
       <c r="Q1" s="114"/>
       <c r="R1" s="114"/>
       <c r="S1" s="114"/>
@@ -13512,22 +13350,22 @@
       <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
       <c r="Q2" s="114"/>
       <c r="R2" s="114"/>
       <c r="S2" s="114"/>
@@ -13537,22 +13375,22 @@
       <c r="W2" s="114"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
       <c r="Q3" s="114"/>
       <c r="R3" s="114"/>
       <c r="S3" s="114"/>
@@ -13562,22 +13400,22 @@
       <c r="W3" s="114"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="163"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
       <c r="Q4" s="114"/>
       <c r="R4" s="114"/>
       <c r="S4" s="114"/>
@@ -13693,459 +13531,459 @@
         <v>117</v>
       </c>
       <c r="D10" s="93"/>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="153" t="s">
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="153" t="s">
+      <c r="I10" s="169"/>
+      <c r="J10" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153" t="s">
+      <c r="K10" s="169"/>
+      <c r="L10" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="153" t="s">
+      <c r="M10" s="169"/>
+      <c r="N10" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="187"/>
-      <c r="P10" s="154"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="169"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="E11" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="169"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="180"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="184"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186" t="s">
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="184"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="181" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="179" t="s">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="169"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="181" t="s">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="184"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="179" t="s">
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173" t="s">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="184"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="179" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="170" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="176" t="s">
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
       <c r="H19" s="127"/>
       <c r="I19" s="128"/>
       <c r="J19" s="127"/>
       <c r="K19" s="128"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="165"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="123"/>
       <c r="O19" s="124"/>
       <c r="P19" s="125"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="184"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="126"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="175"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
       <c r="H20" s="127"/>
       <c r="I20" s="128"/>
       <c r="J20" s="127"/>
       <c r="K20" s="128"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="165"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="123"/>
       <c r="O20" s="124"/>
       <c r="P20" s="125"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="184"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="156"/>
+      <c r="B21" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="157" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="184"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="180"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="181" t="s">
+      <c r="E22" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="184"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186" t="s">
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="176" t="s">
+      <c r="E23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="184"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="181" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="184"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="181" t="s">
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
       <c r="Q26" s="86"/>
       <c r="R26" s="86"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="179" t="s">
+      <c r="A27" s="156"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="176" t="s">
+      <c r="E27" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="169"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="86"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="179" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="170" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="176" t="s">
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="127"/>
       <c r="I29" s="128"/>
       <c r="J29" s="127"/>
       <c r="K29" s="128"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="165"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="123"/>
       <c r="O29" s="124"/>
       <c r="P29" s="125"/>
@@ -14153,19 +13991,19 @@
       <c r="R29" s="86"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="184"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="175"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
       <c r="H30" s="127"/>
       <c r="I30" s="128"/>
       <c r="J30" s="127"/>
       <c r="K30" s="128"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="165"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="123"/>
       <c r="O30" s="124"/>
       <c r="P30" s="125"/>
@@ -14173,230 +14011,230 @@
       <c r="R30" s="86"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="184"/>
-      <c r="B31" s="183" t="s">
+      <c r="A31" s="156"/>
+      <c r="B31" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="157" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="176" t="s">
+      <c r="E31" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="172"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="180"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="181" t="s">
+      <c r="E32" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
       <c r="Q32" s="86"/>
       <c r="R32" s="86"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186" t="s">
+      <c r="A33" s="156"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="181" t="s">
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="169"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="171"/>
+      <c r="P34" s="172"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="184"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="179" t="s">
+      <c r="A35" s="156"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="176" t="s">
+      <c r="E35" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="169"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="172"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="181" t="s">
+      <c r="A36" s="156"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="169"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="172"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="184"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="179" t="s">
+      <c r="A37" s="156"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="176" t="s">
+      <c r="E37" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="169"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="172"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="173" t="s">
+      <c r="A38" s="156"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="175"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
       <c r="H38" s="127"/>
       <c r="I38" s="128"/>
       <c r="J38" s="127"/>
       <c r="K38" s="128"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="165"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="123"/>
       <c r="O38" s="124"/>
       <c r="P38" s="125"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="184"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="179" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="170" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="176" t="s">
+      <c r="A39" s="156"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="178"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="163"/>
       <c r="H39" s="95"/>
       <c r="I39" s="128"/>
       <c r="J39" s="127"/>
       <c r="K39" s="128"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="165"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="154"/>
       <c r="N39" s="123"/>
       <c r="O39" s="124"/>
       <c r="P39" s="125"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="169"/>
+      <c r="A40" s="175"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="172"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="88"/>
@@ -14420,27 +14258,127 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C29:C30"/>
@@ -14465,127 +14403,27 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A11:A40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14610,66 +14448,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="200"/>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200" t="s">
+      <c r="A1" s="191"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -14686,10 +14524,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -14782,14 +14620,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -14821,12 +14659,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="201"/>
-      <c r="B5" s="192" t="s">
+      <c r="A5" s="192"/>
+      <c r="B5" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="16"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -14859,12 +14697,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="201"/>
-      <c r="B6" s="192" t="s">
+      <c r="A6" s="192"/>
+      <c r="B6" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="16"/>
       <c r="F6" s="108"/>
       <c r="G6" s="108"/>
@@ -14897,12 +14735,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="201"/>
-      <c r="B7" s="192" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="16"/>
       <c r="F7" s="108"/>
       <c r="G7" s="108"/>
@@ -14972,66 +14810,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="200"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200" t="s">
+      <c r="A9" s="191"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="191"/>
+      <c r="AF9" s="191"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="200" t="s">
+      <c r="I10" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -15048,10 +14886,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -15148,10 +14986,10 @@
       <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="200" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="199"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -15184,13 +15022,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="188" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="188" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -15228,9 +15066,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="190"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
+      <c r="A14" s="195"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="23" t="s">
         <v>134</v>
       </c>
@@ -15266,9 +15104,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="190"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="23" t="s">
         <v>135</v>
       </c>
@@ -15304,9 +15142,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="190"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="23" t="s">
         <v>136</v>
       </c>
@@ -15342,9 +15180,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="190"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="23" t="s">
         <v>137</v>
       </c>
@@ -15380,9 +15218,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="190"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
       <c r="D18" s="23" t="s">
         <v>138</v>
       </c>
@@ -15418,11 +15256,11 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="190"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="129" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -15456,9 +15294,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="190"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="195" t="s">
+      <c r="A20" s="195"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="188" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -15496,9 +15334,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="190"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="23" t="s">
         <v>134</v>
       </c>
@@ -15534,9 +15372,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="190"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
       <c r="D22" s="23" t="s">
         <v>135</v>
       </c>
@@ -15572,9 +15410,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="190"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
       <c r="D23" s="23" t="s">
         <v>136</v>
       </c>
@@ -15610,9 +15448,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="190"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
       <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
@@ -15648,9 +15486,9 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="190"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
       <c r="D25" s="23" t="s">
         <v>138</v>
       </c>
@@ -15686,11 +15524,11 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="190"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="196"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="129" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -15724,9 +15562,9 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="190"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="195" t="s">
+      <c r="A27" s="195"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="188" t="s">
         <v>140</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -15764,9 +15602,9 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="190"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
+      <c r="A28" s="195"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
       <c r="D28" s="23" t="s">
         <v>134</v>
       </c>
@@ -15802,9 +15640,9 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="190"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
       <c r="D29" s="23" t="s">
         <v>135</v>
       </c>
@@ -15840,9 +15678,9 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="190"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
       <c r="D30" s="23" t="s">
         <v>136</v>
       </c>
@@ -15878,9 +15716,9 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="190"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
       <c r="D31" s="23" t="s">
         <v>137</v>
       </c>
@@ -15916,9 +15754,9 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="190"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
       <c r="D32" s="23" t="s">
         <v>138</v>
       </c>
@@ -15954,11 +15792,11 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="190"/>
+      <c r="A33" s="195"/>
       <c r="B33" s="131"/>
-      <c r="C33" s="196"/>
+      <c r="C33" s="190"/>
       <c r="D33" s="132" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -15992,8 +15830,8 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="190"/>
-      <c r="B34" s="189" t="s">
+      <c r="A34" s="195"/>
+      <c r="B34" s="194" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="130" t="s">
@@ -16034,13 +15872,13 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="190"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="195" t="s">
-        <v>205</v>
+      <c r="A35" s="195"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="188" t="s">
+        <v>202</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -16074,11 +15912,11 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="190"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="196"/>
+      <c r="A36" s="195"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="190"/>
       <c r="D36" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -16123,14 +15961,14 @@
       <c r="AS36" s="31"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="190"/>
-      <c r="B37" s="188" t="s">
+      <c r="A37" s="195"/>
+      <c r="B37" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -16174,12 +16012,12 @@
       <c r="AS37" s="31"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="190"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="193" t="s">
+      <c r="A38" s="195"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="194"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -16223,11 +16061,11 @@
       <c r="AS38" s="31"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="190"/>
-      <c r="B39" s="188" t="s">
+      <c r="A39" s="195"/>
+      <c r="B39" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="193" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="109" t="s">
@@ -16276,9 +16114,9 @@
       <c r="AS39" s="31"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="190"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
       <c r="D40" s="109" t="s">
         <v>18</v>
       </c>
@@ -16325,9 +16163,9 @@
       <c r="AS40" s="31"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="190"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="109" t="s">
         <v>19</v>
       </c>
@@ -16374,9 +16212,9 @@
       <c r="AS41" s="31"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="190"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="109" t="s">
         <v>20</v>
       </c>
@@ -16423,9 +16261,9 @@
       <c r="AS42" s="31"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="190"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="195"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="193" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="109" t="s">
@@ -16474,9 +16312,9 @@
       <c r="AS43" s="31"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="190"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="109" t="s">
         <v>18</v>
       </c>
@@ -16523,9 +16361,9 @@
       <c r="AS44" s="31"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="190"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
       <c r="D45" s="109" t="s">
         <v>19</v>
       </c>
@@ -16572,9 +16410,9 @@
       <c r="AS45" s="31"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="190"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="188" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="193" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="109" t="s">
@@ -16623,9 +16461,9 @@
       <c r="AS46" s="31"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="191"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="193"/>
       <c r="D47" s="109" t="s">
         <v>18</v>
       </c>
@@ -16689,16 +16527,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A13:A47"/>
@@ -16715,6 +16543,16 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B13:B32"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16734,139 +16572,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="208"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="204"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="209"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="207"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="211"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="207"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="212"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="214"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="210"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="115">
         <v>1</v>
       </c>
-      <c r="B5" s="202" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="203"/>
+      <c r="B5" s="211" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="212"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="116">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="202" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="203"/>
+      <c r="B6" s="211" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="212"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="116">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="202" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="203"/>
+      <c r="B7" s="211" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="212"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
@@ -16883,20 +16721,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="212"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
@@ -16913,20 +16751,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="203"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="212"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
@@ -16943,20 +16781,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="203"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
@@ -16973,20 +16811,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="203"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="212"/>
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
@@ -17003,20 +16841,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="212"/>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
@@ -17033,20 +16871,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="203"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="212"/>
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
@@ -17063,20 +16901,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="212"/>
       <c r="W14" s="40"/>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
@@ -17093,20 +16931,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="203"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="211"/>
+      <c r="O15" s="212"/>
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
@@ -17123,20 +16961,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="203"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="212"/>
       <c r="W16" s="40"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -17153,20 +16991,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="203"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="211"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="212"/>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
@@ -17183,20 +17021,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="203"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211"/>
+      <c r="O18" s="212"/>
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
@@ -17213,20 +17051,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="203"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="211"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="211"/>
+      <c r="O19" s="212"/>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
@@ -17243,20 +17081,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="203"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="211"/>
+      <c r="O20" s="212"/>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
@@ -17273,20 +17111,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="203"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="211"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="211"/>
+      <c r="O21" s="212"/>
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
@@ -17303,20 +17141,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="203"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="211"/>
+      <c r="O22" s="212"/>
       <c r="W22" s="40"/>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
@@ -17333,20 +17171,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="203"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
+      <c r="O23" s="212"/>
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
@@ -17363,20 +17201,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="203"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="211"/>
+      <c r="N24" s="211"/>
+      <c r="O24" s="212"/>
       <c r="W24" s="40"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
@@ -17393,20 +17231,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="203"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="212"/>
       <c r="W25" s="40"/>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
@@ -17423,20 +17261,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="203"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="212"/>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
@@ -17453,20 +17291,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="203"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="211"/>
+      <c r="N27" s="211"/>
+      <c r="O27" s="212"/>
       <c r="W27" s="40"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
@@ -17483,20 +17321,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="211"/>
+      <c r="N28" s="211"/>
+      <c r="O28" s="212"/>
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
@@ -17513,20 +17351,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="203"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="211"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="211"/>
+      <c r="O29" s="212"/>
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
@@ -17543,20 +17381,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="203"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="211"/>
+      <c r="M30" s="211"/>
+      <c r="N30" s="211"/>
+      <c r="O30" s="212"/>
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
@@ -17573,20 +17411,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="203"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="211"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="211"/>
+      <c r="O31" s="212"/>
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
@@ -17603,20 +17441,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="203"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="211"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="212"/>
       <c r="W32" s="40"/>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
@@ -17633,20 +17471,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="203"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="212"/>
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
@@ -17663,20 +17501,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="202"/>
-      <c r="O34" s="203"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="211"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="212"/>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
@@ -17693,20 +17531,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="202"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="202"/>
-      <c r="O35" s="203"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="211"/>
+      <c r="L35" s="211"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="211"/>
+      <c r="O35" s="212"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
@@ -17723,20 +17561,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="203"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="212"/>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
@@ -17753,20 +17591,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="202"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="202"/>
-      <c r="O37" s="203"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
+      <c r="O37" s="212"/>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
@@ -17783,20 +17621,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="203"/>
+      <c r="B38" s="211"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="211"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211"/>
+      <c r="O38" s="212"/>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
@@ -17813,20 +17651,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="203"/>
+      <c r="B39" s="211"/>
+      <c r="C39" s="211"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="211"/>
+      <c r="K39" s="211"/>
+      <c r="L39" s="211"/>
+      <c r="M39" s="211"/>
+      <c r="N39" s="211"/>
+      <c r="O39" s="212"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
@@ -17843,20 +17681,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="202"/>
-      <c r="O40" s="203"/>
+      <c r="B40" s="211"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="211"/>
+      <c r="K40" s="211"/>
+      <c r="L40" s="211"/>
+      <c r="M40" s="211"/>
+      <c r="N40" s="211"/>
+      <c r="O40" s="212"/>
       <c r="W40" s="40"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
@@ -17873,20 +17711,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="203"/>
+      <c r="B41" s="211"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="211"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="211"/>
+      <c r="I41" s="211"/>
+      <c r="J41" s="211"/>
+      <c r="K41" s="211"/>
+      <c r="L41" s="211"/>
+      <c r="M41" s="211"/>
+      <c r="N41" s="211"/>
+      <c r="O41" s="212"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
@@ -17903,20 +17741,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="213"/>
+      <c r="J42" s="213"/>
+      <c r="K42" s="213"/>
+      <c r="L42" s="213"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="213"/>
+      <c r="O42" s="214"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
@@ -17966,36 +17804,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -18005,6 +17813,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18012,11 +17850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF182" sqref="AF182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18261,7 +18099,7 @@
       </c>
       <c r="U5" s="28"/>
       <c r="AK5" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL5" s="28"/>
     </row>
@@ -18283,18 +18121,12 @@
     </row>
     <row r="8" spans="1:54">
       <c r="B8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -19298,19 +19130,9 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
     </row>
-    <row r="68" spans="9:11">
-      <c r="K68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="9:11">
+    <row r="70" spans="9:9">
       <c r="I70" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="23:23">
-      <c r="W121" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -19318,8 +19140,36 @@
     <mergeCell ref="G1:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Photoshop.Image.13" shapeId="2051" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Photoshop.Image.13" shapeId="2051" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -19330,7 +19180,7 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -19451,7 +19301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView topLeftCell="A347" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
@@ -19586,7 +19436,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
@@ -19625,7 +19475,7 @@
     </row>
     <row r="344" spans="12:12">
       <c r="L344" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -19727,32 +19577,32 @@
     </row>
     <row r="10" spans="1:30">
       <c r="AD10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="N31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="73:91">
       <c r="BU34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="73:91">
       <c r="CE36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="73:91">
       <c r="BU37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="73:91">
@@ -19762,33 +19612,33 @@
     </row>
     <row r="56" spans="9:73">
       <c r="I56" s="151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J56" s="151"/>
       <c r="K56" s="151"/>
       <c r="L56" s="151"/>
       <c r="BU56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="73:73">
       <c r="BU67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -19806,8 +19656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM213"/>
   <sheetViews>
-    <sheetView topLeftCell="X16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19891,13 +19741,13 @@
     </row>
     <row r="17" spans="3:24">
       <c r="C17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="X17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="91:91">
@@ -19905,7 +19755,7 @@
     </row>
     <row r="56" spans="9:12">
       <c r="I56" s="151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J56" s="151"/>
       <c r="K56" s="151"/>
@@ -19913,12 +19763,12 @@
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -19928,7 +19778,8 @@
     <mergeCell ref="I56:L56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20016,7 +19867,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -20033,7 +19884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP118"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -20143,7 +19994,7 @@
         <v>350</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>46</v>
@@ -20152,7 +20003,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>49</v>
@@ -20161,7 +20012,7 @@
         <v>50000000</v>
       </c>
       <c r="I7" s="137" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -20175,7 +20026,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>47</v>
@@ -20184,7 +20035,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>48</v>
@@ -20193,7 +20044,7 @@
         <v>200000000</v>
       </c>
       <c r="I8" s="137" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
@@ -20207,7 +20058,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -20227,7 +20078,7 @@
         <v>415</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>65</v>
@@ -20243,7 +20094,7 @@
         <v>400000</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -20285,7 +20136,7 @@
         <v>1200</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>85</v>
@@ -20294,7 +20145,7 @@
         <v>4730</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -20311,7 +20162,7 @@
         <v>150</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>86</v>
@@ -20320,7 +20171,7 @@
         <v>4200</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
@@ -20338,7 +20189,7 @@
         <v>500</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -20387,7 +20238,7 @@
       <c r="Z16" s="51"/>
       <c r="AA16" s="53"/>
       <c r="AB16" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC16" s="51"/>
       <c r="AD16" s="51"/>
@@ -20416,7 +20267,7 @@
         <v>200000000</v>
       </c>
       <c r="D17" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -20436,7 +20287,7 @@
         <v>200000000</v>
       </c>
       <c r="O17" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>113</v>
@@ -20446,7 +20297,7 @@
         <v>0.82837632937833339</v>
       </c>
       <c r="T17" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
@@ -20465,7 +20316,7 @@
         <v>200000000</v>
       </c>
       <c r="AD17" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
@@ -20488,7 +20339,7 @@
         <v>188.73018936122099</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -20506,7 +20357,7 @@
         <v>241436160</v>
       </c>
       <c r="O18" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
@@ -20519,13 +20370,13 @@
       <c r="Z18" s="31"/>
       <c r="AA18" s="32"/>
       <c r="AB18" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AC18" s="31">
         <v>10000</v>
       </c>
       <c r="AD18" s="136" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
@@ -20550,7 +20401,7 @@
         <v>240</v>
       </c>
       <c r="D19" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -20631,7 +20482,7 @@
       <c r="Z20" s="31"/>
       <c r="AA20" s="32"/>
       <c r="AB20" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31">
@@ -20639,7 +20490,7 @@
         <v>2857142857142.8574</v>
       </c>
       <c r="AE20" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
@@ -20663,7 +20514,7 @@
         <v>1314.7185258850968</v>
       </c>
       <c r="D21" s="134" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -20742,7 +20593,7 @@
       <c r="Z22" s="31"/>
       <c r="AA22" s="32"/>
       <c r="AB22" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC22" s="31"/>
       <c r="AD22" s="31">
@@ -20750,7 +20601,7 @@
         <v>2857142857188.5718</v>
       </c>
       <c r="AE22" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF22" s="31"/>
       <c r="AG22" s="31"/>
@@ -20871,7 +20722,7 @@
         <v>358.43373493975906</v>
       </c>
       <c r="D25" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
@@ -21116,11 +20967,11 @@
         <v>7000</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="136" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
@@ -21934,7 +21785,7 @@
       <c r="Z47" s="51"/>
       <c r="AA47" s="53"/>
       <c r="AB47" s="52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AC47" s="59"/>
       <c r="AD47" s="59"/>
@@ -21964,7 +21815,7 @@
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -21984,7 +21835,7 @@
         <v>200000000</v>
       </c>
       <c r="P48" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
@@ -22000,14 +21851,14 @@
       <c r="Z48" s="31"/>
       <c r="AA48" s="32"/>
       <c r="AB48" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AC48" s="31"/>
       <c r="AD48" s="31">
         <v>10</v>
       </c>
       <c r="AE48" s="139" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG48" s="31"/>
       <c r="AH48" s="31"/>
@@ -22031,7 +21882,7 @@
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="135" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -22049,7 +21900,7 @@
         <v>188.73018936122099</v>
       </c>
       <c r="P49" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
@@ -22063,14 +21914,14 @@
       <c r="Z49" s="31"/>
       <c r="AA49" s="32"/>
       <c r="AB49" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AC49" s="31"/>
       <c r="AD49" s="31">
         <v>5</v>
       </c>
       <c r="AE49" s="139" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG49" s="31"/>
       <c r="AH49" s="31"/>
@@ -22096,7 +21947,7 @@
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -22116,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="P50" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
@@ -22130,14 +21981,14 @@
       <c r="Z50" s="31"/>
       <c r="AA50" s="32"/>
       <c r="AB50" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AC50" s="31"/>
       <c r="AD50" s="31">
         <v>60</v>
       </c>
       <c r="AE50" s="134" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF50" s="31"/>
       <c r="AG50" s="31"/>
@@ -22176,7 +22027,7 @@
         <v>1200</v>
       </c>
       <c r="P51" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
@@ -22225,7 +22076,7 @@
         <v>150</v>
       </c>
       <c r="P52" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
@@ -22261,7 +22112,7 @@
         <v>1314.7185258850968</v>
       </c>
       <c r="D53" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -22280,7 +22131,7 @@
         <v>500</v>
       </c>
       <c r="P53" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
@@ -22343,7 +22194,7 @@
       <c r="Z54" s="31"/>
       <c r="AA54" s="32"/>
       <c r="AB54" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AC54" s="31"/>
       <c r="AD54" s="31">
@@ -22351,7 +22202,7 @@
         <v>5.1138057142857143</v>
       </c>
       <c r="AE54" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF54" s="31"/>
       <c r="AG54" s="31"/>
@@ -22399,7 +22250,7 @@
       <c r="Z55" s="31"/>
       <c r="AA55" s="32"/>
       <c r="AB55" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AC55" s="31"/>
       <c r="AD55" s="31">
@@ -22407,7 +22258,7 @@
         <v>3.02</v>
       </c>
       <c r="AE55" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF55" s="31"/>
       <c r="AG55" s="31"/>
@@ -22431,7 +22282,7 @@
         <v>358.43373493975906</v>
       </c>
       <c r="D56" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
@@ -22457,7 +22308,7 @@
       <c r="Z56" s="31"/>
       <c r="AA56" s="32"/>
       <c r="AB56" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AC56" s="31"/>
       <c r="AD56" s="31">
@@ -22465,7 +22316,7 @@
         <v>6.123596</v>
       </c>
       <c r="AE56" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF56" s="31"/>
       <c r="AG56" s="31"/>
@@ -22501,7 +22352,7 @@
         <v>-195.99443644861171</v>
       </c>
       <c r="P57" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
@@ -22552,7 +22403,7 @@
         <v>4546.2013013446922</v>
       </c>
       <c r="P58" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
@@ -22566,7 +22417,7 @@
       <c r="Z58" s="31"/>
       <c r="AA58" s="32"/>
       <c r="AB58" s="40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AC58" s="31"/>
       <c r="AD58" s="31">
@@ -22574,7 +22425,7 @@
         <v>14.257401714285713</v>
       </c>
       <c r="AE58" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF58" s="31"/>
       <c r="AG58" s="31"/>
@@ -22667,7 +22518,7 @@
       <c r="Z60" s="46"/>
       <c r="AA60" s="47"/>
       <c r="AB60" s="46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
@@ -22694,7 +22545,7 @@
         <v>7000</v>
       </c>
       <c r="D61" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
@@ -22722,7 +22573,7 @@
       <c r="Z61" s="31"/>
       <c r="AA61" s="32"/>
       <c r="AB61" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AC61" s="31"/>
       <c r="AD61" s="31">
@@ -22730,7 +22581,7 @@
         <v>18.920000000000002</v>
       </c>
       <c r="AE61" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF61" s="31"/>
       <c r="AG61" s="31"/>
@@ -22766,7 +22617,7 @@
         <v>358.43373493975906</v>
       </c>
       <c r="P62" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
@@ -22914,7 +22765,7 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="47"/>
       <c r="AB65" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AC65" s="46"/>
       <c r="AD65" s="46"/>
@@ -22962,7 +22813,7 @@
       <c r="Z66" s="31"/>
       <c r="AA66" s="32"/>
       <c r="AB66" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AC66" s="31"/>
       <c r="AD66" s="31">
@@ -22970,7 +22821,7 @@
         <v>13.514285714285714</v>
       </c>
       <c r="AE66" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF66" s="31"/>
       <c r="AG66" s="31"/>
@@ -23006,7 +22857,7 @@
         <v>7000</v>
       </c>
       <c r="P67" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
@@ -23754,7 +23605,7 @@
         <v>9844000000</v>
       </c>
       <c r="D84" s="134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
@@ -23775,7 +23626,7 @@
         <v>400000</v>
       </c>
       <c r="P84" s="140" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q84" s="76" t="s">
         <v>42</v>
@@ -23784,7 +23635,7 @@
         <v>350</v>
       </c>
       <c r="S84" s="76" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T84" s="76" t="s">
         <v>104</v>
@@ -23793,7 +23644,7 @@
         <v>550</v>
       </c>
       <c r="V84" s="76" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="W84" s="76"/>
       <c r="X84" s="76"/>
@@ -23825,7 +23676,7 @@
         <v>4730</v>
       </c>
       <c r="D85" s="139" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E85" s="31"/>
       <c r="F85" s="31"/>
@@ -23844,7 +23695,7 @@
         <v>2.0779220779220777</v>
       </c>
       <c r="P85" s="136" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q85" s="49"/>
       <c r="R85" s="49"/>
@@ -23882,7 +23733,7 @@
         <v>4200</v>
       </c>
       <c r="D86" s="139" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E86" s="31"/>
       <c r="F86" s="31"/>
@@ -23900,7 +23751,7 @@
         <v>3217</v>
       </c>
       <c r="P86" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q86" s="31"/>
       <c r="R86" s="31"/>
@@ -23950,7 +23801,7 @@
         <v>0.79</v>
       </c>
       <c r="P87" s="136" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q87" s="49"/>
       <c r="R87" s="49"/>
@@ -24004,7 +23855,7 @@
         <v>3.1</v>
       </c>
       <c r="P88" s="136" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q88" s="49"/>
       <c r="R88" s="49"/>
@@ -24045,7 +23896,7 @@
         <v>2626</v>
       </c>
       <c r="D89" s="134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
@@ -24099,7 +23950,7 @@
         <v>10382.681552166594</v>
       </c>
       <c r="D90" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E90" s="40"/>
       <c r="F90" s="40"/>
@@ -24118,7 +23969,7 @@
         <v>1.2485049917538491</v>
       </c>
       <c r="P90" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q90" s="49"/>
       <c r="R90" s="49"/>
@@ -24335,7 +24186,7 @@
         <v>44100</v>
       </c>
       <c r="D95" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
@@ -24444,7 +24295,7 @@
         <v>0.38775792826478328</v>
       </c>
       <c r="P97" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q97" s="31"/>
       <c r="R97" s="31"/>
@@ -24573,7 +24424,7 @@
         <v>420</v>
       </c>
       <c r="D100" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>93</v>
@@ -24760,7 +24611,7 @@
         <v>700.00000000000011</v>
       </c>
       <c r="D104" s="136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>93</v>
@@ -25551,8 +25402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD320"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L331" sqref="L331"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25635,14 +25486,9 @@
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
     </row>
-    <row r="8" spans="1:30">
-      <c r="V8" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -25659,121 +25505,121 @@
     </row>
     <row r="61" spans="26:26">
       <c r="Z61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="26:26">
       <c r="Z70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="26:26">
       <c r="Z81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="14:21">
       <c r="O122" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="14:21">
       <c r="U124" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="14:21">
       <c r="N125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="14:21">
       <c r="N135" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="14:21">
       <c r="U139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="14:21">
       <c r="O142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="14:18">
       <c r="O168" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R168" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="14:18">
       <c r="N171" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="14:15">
       <c r="N181" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="14:15">
       <c r="O188" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="257" spans="15:16">
       <c r="O257" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P257" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="306" spans="14:14">
       <c r="N306" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="307" spans="14:14" ht="18.75">
       <c r="N307" s="133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="309" spans="14:14" ht="18.75">
       <c r="N309" s="133" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="314" spans="14:14">
       <c r="N314" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="320" spans="14:14">
       <c r="N320" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midas\Desktop\IS_DEVELOPMENT\IS_456_BEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLIDSNAKE\Desktop\Project_IS_github\IS_456_BEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -2646,6 +2646,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2676,13 +2679,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,77 +2790,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2805,37 +2829,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2865,14 +2862,17 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6824,15 +6824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>302284</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6841,8 +6841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9217684" y="9258300"/>
-          <a:ext cx="5288891" cy="228600"/>
+          <a:off x="9253904" y="8521212"/>
+          <a:ext cx="5026269" cy="230798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6883,74 +6883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311809</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9227209" y="11010901"/>
-          <a:ext cx="5288891" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>378485</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>371159</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>497499</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>174381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6959,8 +6900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9293885" y="9753601"/>
-          <a:ext cx="126340" cy="171449"/>
+          <a:off x="9324659" y="10441599"/>
+          <a:ext cx="126340" cy="173647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7283,15 +7224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>464210</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>324998</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7300,8 +7241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9379610" y="11229976"/>
-          <a:ext cx="126340" cy="171449"/>
+          <a:off x="9278498" y="11659334"/>
+          <a:ext cx="5023655" cy="173647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7342,14 +7283,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>454685</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>440032</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>566372</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7359,8 +7300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9370085" y="11496676"/>
-          <a:ext cx="126340" cy="171449"/>
+          <a:off x="9393532" y="12184674"/>
+          <a:ext cx="126340" cy="173647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7460,15 +7401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311810</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>275176</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520212</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>176579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7477,8 +7418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9227210" y="12239625"/>
-          <a:ext cx="5279366" cy="228600"/>
+          <a:off x="9228676" y="12951069"/>
+          <a:ext cx="5066151" cy="230798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7519,15 +7460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>54635</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>289097</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>81329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>71805</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7536,8 +7477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8970035" y="15087600"/>
-          <a:ext cx="7060540" cy="895350"/>
+          <a:off x="9242597" y="14368829"/>
+          <a:ext cx="5110845" cy="906341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7616,13 +7557,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>83210</xdr:colOff>
+      <xdr:colOff>90537</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>129396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>168466</xdr:colOff>
+      <xdr:colOff>175793</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -7633,8 +7574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11741810" y="2301096"/>
-          <a:ext cx="771056" cy="1023129"/>
+          <a:off x="11798960" y="2327473"/>
+          <a:ext cx="773987" cy="1036317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7667,6 +7608,185 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>615461</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11195538" y="3802673"/>
+          <a:ext cx="1817077" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327513</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>535182</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9281013" y="9940437"/>
+          <a:ext cx="5028784" cy="482843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>153864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>615460</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10118479" y="14075018"/>
+          <a:ext cx="1516673" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>and Crack Width</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10722,15 +10842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10739,7 +10859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="8829675"/>
+          <a:off x="1323975" y="8848725"/>
           <a:ext cx="8172450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10772,7 +10892,27 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Crack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Width (mm)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10939,6 +11079,151 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819899" y="10020299"/>
+          <a:ext cx="2352676" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Crack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> width Limit check x &lt; xlimit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="8601075"/>
+          <a:ext cx="8172450" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deflection (mm)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16205,41 +16490,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -16261,118 +16546,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42957</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="146"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -16431,14 +16716,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -16449,12 +16734,12 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
@@ -16465,12 +16750,12 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -16481,12 +16766,12 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
@@ -21961,14 +22246,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -21982,12 +22267,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22001,12 +22286,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22020,12 +22305,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22183,14 +22468,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -22204,12 +22489,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22223,12 +22508,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22242,12 +22527,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22276,7 +22561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A316" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
@@ -22288,14 +22573,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -22309,12 +22594,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22328,12 +22613,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22347,12 +22632,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22404,24 +22689,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="157"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="183"/>
       <c r="Q1" s="114"/>
       <c r="R1" s="114"/>
       <c r="S1" s="114"/>
@@ -22431,22 +22716,22 @@
       <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
       <c r="Q2" s="114"/>
       <c r="R2" s="114"/>
       <c r="S2" s="114"/>
@@ -22456,22 +22741,22 @@
       <c r="W2" s="114"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
       <c r="Q3" s="114"/>
       <c r="R3" s="114"/>
       <c r="S3" s="114"/>
@@ -22481,22 +22766,22 @@
       <c r="W3" s="114"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="163"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="114"/>
       <c r="R4" s="114"/>
       <c r="S4" s="114"/>
@@ -22612,459 +22897,459 @@
         <v>117</v>
       </c>
       <c r="D10" s="93"/>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="153" t="s">
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="153" t="s">
+      <c r="I10" s="172"/>
+      <c r="J10" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153" t="s">
+      <c r="K10" s="172"/>
+      <c r="L10" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="153" t="s">
+      <c r="M10" s="172"/>
+      <c r="N10" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="187"/>
-      <c r="P10" s="154"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="E11" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="169"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="175"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="180"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="184"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186" t="s">
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="184"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="181" t="s">
+      <c r="A14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="179" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="169"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="181" t="s">
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="184"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="179" t="s">
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173" t="s">
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="184"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="179" t="s">
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="170" t="s">
+      <c r="D19" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="166"/>
       <c r="H19" s="127"/>
       <c r="I19" s="128"/>
       <c r="J19" s="127"/>
       <c r="K19" s="128"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="165"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="123"/>
       <c r="O19" s="124"/>
       <c r="P19" s="125"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="184"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="126"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="175"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
       <c r="H20" s="127"/>
       <c r="I20" s="128"/>
       <c r="J20" s="127"/>
       <c r="K20" s="128"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="165"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="157"/>
       <c r="N20" s="123"/>
       <c r="O20" s="124"/>
       <c r="P20" s="125"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="184"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="159"/>
+      <c r="B21" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="184"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="180"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="181" t="s">
+      <c r="E22" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="184"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="176" t="s">
+      <c r="E23" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="184"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="181" t="s">
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="184"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="159"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="181" t="s">
+      <c r="A26" s="159"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
       <c r="Q26" s="86"/>
       <c r="R26" s="86"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="179" t="s">
+      <c r="A27" s="159"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="176" t="s">
+      <c r="E27" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173" t="s">
+      <c r="A28" s="159"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="169"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="86"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="179" t="s">
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="176" t="s">
+      <c r="E29" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="127"/>
       <c r="I29" s="128"/>
       <c r="J29" s="127"/>
       <c r="K29" s="128"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="165"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="157"/>
       <c r="N29" s="123"/>
       <c r="O29" s="124"/>
       <c r="P29" s="125"/>
@@ -23072,19 +23357,19 @@
       <c r="R29" s="86"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="184"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="175"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="127"/>
       <c r="I30" s="128"/>
       <c r="J30" s="127"/>
       <c r="K30" s="128"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="165"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="157"/>
       <c r="N30" s="123"/>
       <c r="O30" s="124"/>
       <c r="P30" s="125"/>
@@ -23092,230 +23377,230 @@
       <c r="R30" s="86"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="184"/>
-      <c r="B31" s="183" t="s">
+      <c r="A31" s="159"/>
+      <c r="B31" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="176" t="s">
+      <c r="E31" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="175"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="180"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="181" t="s">
+      <c r="E32" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="175"/>
       <c r="Q32" s="86"/>
       <c r="R32" s="86"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186" t="s">
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="175"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="181" t="s">
+      <c r="A34" s="159"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="169"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="175"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="184"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="179" t="s">
+      <c r="A35" s="159"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="176" t="s">
+      <c r="E35" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="169"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="175"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="181" t="s">
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="169"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="175"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="184"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="179" t="s">
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="176" t="s">
+      <c r="E37" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="169"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="175"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="173" t="s">
+      <c r="A38" s="159"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="175"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="127"/>
       <c r="I38" s="128"/>
       <c r="J38" s="127"/>
       <c r="K38" s="128"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="165"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="157"/>
       <c r="N38" s="123"/>
       <c r="O38" s="124"/>
       <c r="P38" s="125"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="184"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="179" t="s">
+      <c r="A39" s="159"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="170" t="s">
+      <c r="D39" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="176" t="s">
+      <c r="E39" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="178"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="166"/>
       <c r="H39" s="95"/>
       <c r="I39" s="128"/>
       <c r="J39" s="127"/>
       <c r="K39" s="128"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="165"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="157"/>
       <c r="N39" s="123"/>
       <c r="O39" s="124"/>
       <c r="P39" s="125"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="169"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="175"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="88"/>
@@ -23339,27 +23624,127 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C29:C30"/>
@@ -23384,127 +23769,27 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A11:A40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23529,66 +23814,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="200"/>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200" t="s">
+      <c r="A1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="194"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -23605,10 +23890,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -23701,14 +23986,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -23740,12 +24025,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="201"/>
-      <c r="B5" s="192" t="s">
+      <c r="A5" s="195"/>
+      <c r="B5" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="16"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -23778,12 +24063,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="201"/>
-      <c r="B6" s="192" t="s">
+      <c r="A6" s="195"/>
+      <c r="B6" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="16"/>
       <c r="F6" s="108"/>
       <c r="G6" s="108"/>
@@ -23816,12 +24101,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="201"/>
-      <c r="B7" s="192" t="s">
+      <c r="A7" s="195"/>
+      <c r="B7" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="16"/>
       <c r="F7" s="108"/>
       <c r="G7" s="108"/>
@@ -23891,66 +24176,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="200"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="194"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="200" t="s">
+      <c r="I10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -23967,10 +24252,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -24067,10 +24352,10 @@
       <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="199"/>
+      <c r="D12" s="204"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -24103,13 +24388,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="191" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -24147,9 +24432,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="190"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="23" t="s">
         <v>134</v>
       </c>
@@ -24185,9 +24470,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="190"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="23" t="s">
         <v>135</v>
       </c>
@@ -24223,9 +24508,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="190"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="23" t="s">
         <v>136</v>
       </c>
@@ -24261,9 +24546,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="190"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
       <c r="D17" s="23" t="s">
         <v>137</v>
       </c>
@@ -24299,9 +24584,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="190"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
       <c r="D18" s="23" t="s">
         <v>138</v>
       </c>
@@ -24337,9 +24622,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="190"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="129" t="s">
         <v>223</v>
       </c>
@@ -24375,9 +24660,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="190"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="195" t="s">
+      <c r="A20" s="198"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="191" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -24415,9 +24700,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="190"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="23" t="s">
         <v>134</v>
       </c>
@@ -24453,9 +24738,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="190"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="23" t="s">
         <v>135</v>
       </c>
@@ -24491,9 +24776,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="190"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
       <c r="D23" s="23" t="s">
         <v>136</v>
       </c>
@@ -24529,9 +24814,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="190"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
@@ -24567,9 +24852,9 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="190"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
       <c r="D25" s="23" t="s">
         <v>138</v>
       </c>
@@ -24605,9 +24890,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="190"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="196"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="129" t="s">
         <v>223</v>
       </c>
@@ -24643,9 +24928,9 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="190"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="195" t="s">
+      <c r="A27" s="198"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="191" t="s">
         <v>140</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -24683,9 +24968,9 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="190"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="192"/>
       <c r="D28" s="23" t="s">
         <v>134</v>
       </c>
@@ -24721,9 +25006,9 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="190"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="23" t="s">
         <v>135</v>
       </c>
@@ -24759,9 +25044,9 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="190"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="23" t="s">
         <v>136</v>
       </c>
@@ -24797,9 +25082,9 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="190"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
       <c r="D31" s="23" t="s">
         <v>137</v>
       </c>
@@ -24835,9 +25120,9 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="190"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="192"/>
       <c r="D32" s="23" t="s">
         <v>138</v>
       </c>
@@ -24873,9 +25158,9 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="190"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="131"/>
-      <c r="C33" s="196"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="132" t="s">
         <v>223</v>
       </c>
@@ -24911,8 +25196,8 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="190"/>
-      <c r="B34" s="189" t="s">
+      <c r="A34" s="198"/>
+      <c r="B34" s="197" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="130" t="s">
@@ -24953,9 +25238,9 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="190"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="195" t="s">
+      <c r="A35" s="198"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="191" t="s">
         <v>200</v>
       </c>
       <c r="D35" s="111" t="s">
@@ -24993,9 +25278,9 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="190"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="196"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="193"/>
       <c r="D36" s="111" t="s">
         <v>202</v>
       </c>
@@ -25042,14 +25327,14 @@
       <c r="AS36" s="31"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="190"/>
-      <c r="B37" s="188" t="s">
+      <c r="A37" s="198"/>
+      <c r="B37" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -25093,12 +25378,12 @@
       <c r="AS37" s="31"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="190"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="193" t="s">
+      <c r="A38" s="198"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="201" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="194"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -25142,11 +25427,11 @@
       <c r="AS38" s="31"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="190"/>
-      <c r="B39" s="188" t="s">
+      <c r="A39" s="198"/>
+      <c r="B39" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="196" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="109" t="s">
@@ -25195,9 +25480,9 @@
       <c r="AS39" s="31"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="190"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
+      <c r="A40" s="198"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="196"/>
       <c r="D40" s="109" t="s">
         <v>18</v>
       </c>
@@ -25244,9 +25529,9 @@
       <c r="AS40" s="31"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="190"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
       <c r="D41" s="109" t="s">
         <v>19</v>
       </c>
@@ -25293,9 +25578,9 @@
       <c r="AS41" s="31"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="190"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="109" t="s">
         <v>20</v>
       </c>
@@ -25342,9 +25627,9 @@
       <c r="AS42" s="31"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="190"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="198"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="109" t="s">
@@ -25393,9 +25678,9 @@
       <c r="AS43" s="31"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="190"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
       <c r="D44" s="109" t="s">
         <v>18</v>
       </c>
@@ -25442,9 +25727,9 @@
       <c r="AS44" s="31"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="190"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
       <c r="D45" s="109" t="s">
         <v>19</v>
       </c>
@@ -25491,9 +25776,9 @@
       <c r="AS45" s="31"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="190"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="188" t="s">
+      <c r="A46" s="198"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="109" t="s">
@@ -25542,9 +25827,9 @@
       <c r="AS46" s="31"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="191"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
       <c r="D47" s="109" t="s">
         <v>18</v>
       </c>
@@ -25608,16 +25893,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A13:A47"/>
@@ -25634,6 +25909,16 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B13:B32"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25653,133 +25938,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="208"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="209"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="211"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="210"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="212"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="214"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="213"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="115">
         <v>1</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="203"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="215"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="116">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="203"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="215"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="116">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="203"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="215"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
@@ -25796,20 +26081,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="215"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
@@ -25826,20 +26111,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="203"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="215"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
@@ -25856,20 +26141,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="203"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="215"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
@@ -25886,20 +26171,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="203"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="215"/>
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
@@ -25916,20 +26201,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="215"/>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
@@ -25946,20 +26231,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="203"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="215"/>
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
@@ -25976,20 +26261,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="215"/>
       <c r="W14" s="40"/>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
@@ -26006,20 +26291,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="203"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="215"/>
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
@@ -26036,20 +26321,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="203"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="215"/>
       <c r="W16" s="40"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -26066,20 +26351,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="203"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="215"/>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
@@ -26096,20 +26381,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="203"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="215"/>
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
@@ -26126,20 +26411,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="203"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="215"/>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
@@ -26156,20 +26441,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="203"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="215"/>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
@@ -26186,20 +26471,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="203"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="215"/>
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
@@ -26216,20 +26501,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="203"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="215"/>
       <c r="W22" s="40"/>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
@@ -26246,20 +26531,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="203"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="215"/>
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
@@ -26276,20 +26561,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="203"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="215"/>
       <c r="W24" s="40"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
@@ -26306,20 +26591,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="203"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="215"/>
       <c r="W25" s="40"/>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
@@ -26336,20 +26621,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="203"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="215"/>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
@@ -26366,20 +26651,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="203"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="215"/>
       <c r="W27" s="40"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
@@ -26396,20 +26681,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="215"/>
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
@@ -26426,20 +26711,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="203"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="215"/>
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
@@ -26456,20 +26741,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="203"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="215"/>
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
@@ -26486,20 +26771,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="203"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="215"/>
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
@@ -26516,20 +26801,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="203"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="215"/>
       <c r="W32" s="40"/>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
@@ -26546,20 +26831,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="203"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="215"/>
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
@@ -26576,20 +26861,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="202"/>
-      <c r="O34" s="203"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="214"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="214"/>
+      <c r="N34" s="214"/>
+      <c r="O34" s="215"/>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
@@ -26606,20 +26891,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="202"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="202"/>
-      <c r="O35" s="203"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="214"/>
+      <c r="L35" s="214"/>
+      <c r="M35" s="214"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="215"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
@@ -26636,20 +26921,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="203"/>
+      <c r="B36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="215"/>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
@@ -26666,20 +26951,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="202"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="202"/>
-      <c r="O37" s="203"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="214"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="215"/>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
@@ -26696,20 +26981,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="203"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
+      <c r="O38" s="215"/>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
@@ -26726,20 +27011,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="203"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="214"/>
+      <c r="N39" s="214"/>
+      <c r="O39" s="215"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
@@ -26756,20 +27041,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="202"/>
-      <c r="O40" s="203"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="215"/>
       <c r="W40" s="40"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
@@ -26786,20 +27071,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="203"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="215"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
@@ -26816,20 +27101,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
+      <c r="O42" s="217"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
@@ -26879,36 +27164,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -26918,6 +27173,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26945,14 +27230,14 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
       <c r="O1" s="118"/>
@@ -27003,12 +27288,12 @@
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="118"/>
       <c r="N2" s="118"/>
       <c r="O2" s="118"/>
@@ -27059,12 +27344,12 @@
       <c r="D3" s="118"/>
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="118"/>
       <c r="N3" s="118"/>
       <c r="O3" s="118"/>
@@ -27115,12 +27400,12 @@
       <c r="D4" s="118"/>
       <c r="E4" s="118"/>
       <c r="F4" s="118"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="118"/>
       <c r="N4" s="118"/>
       <c r="O4" s="118"/>
@@ -28255,84 +28540,84 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16">
@@ -28383,74 +28668,74 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="82" t="s">
@@ -28574,73 +28859,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -28686,12 +28971,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="151" t="s">
+      <c r="I56" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
       <c r="BU56" t="s">
         <v>164</v>
       </c>
@@ -28738,73 +29023,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -28829,10 +29114,10 @@
       <c r="CM38" s="122"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -28870,70 +29155,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
@@ -28954,13 +29239,13 @@
       </c>
     </row>
     <row r="38" spans="91:91">
-      <c r="CM38" s="215"/>
+      <c r="CM38" s="142"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -28994,73 +29279,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -29084,8 +29369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AT33" sqref="AT33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -29094,70 +29379,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
@@ -29167,13 +29452,13 @@
       </c>
     </row>
     <row r="38" spans="91:91">
-      <c r="CM38" s="215"/>
+      <c r="CM38" s="142"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">

--- a/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_by_Pathan Muzafar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="233">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -1649,6 +1649,15 @@
   </si>
   <si>
     <t>generallize the equation which work for the both the condition single and double !!!</t>
+  </si>
+  <si>
+    <t>Flexural</t>
+  </si>
+  <si>
+    <t>DELFECTION AND CRACK</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -2646,6 +2655,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2676,13 +2688,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,77 +2799,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2805,37 +2838,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2865,14 +2871,17 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6824,15 +6833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>302284</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>311810</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6841,8 +6850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9217684" y="9258300"/>
-          <a:ext cx="5288891" cy="228600"/>
+          <a:off x="9227210" y="9839325"/>
+          <a:ext cx="5012666" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6883,15 +6892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311809</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>321334</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6900,67 +6909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9227209" y="11010901"/>
-          <a:ext cx="5288891" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>378485</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9293885" y="9753601"/>
-          <a:ext cx="126340" cy="171449"/>
+          <a:off x="9236734" y="11515726"/>
+          <a:ext cx="4945991" cy="161924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7283,25 +7233,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>464210</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>368960</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9379610" y="11229976"/>
-          <a:ext cx="126340" cy="171449"/>
+          <a:off x="9284360" y="12820650"/>
+          <a:ext cx="4869790" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7342,192 +7292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>454685</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>273710</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9370085" y="11496676"/>
-          <a:ext cx="126340" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>473735</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9389135" y="11753851"/>
-          <a:ext cx="126340" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311810</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9227210" y="12239625"/>
-          <a:ext cx="5279366" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0">
-            <a:alpha val="25000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>54635</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7536,8 +7309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8970035" y="15087600"/>
-          <a:ext cx="7060540" cy="895350"/>
+          <a:off x="9189110" y="14201775"/>
+          <a:ext cx="5060290" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7635,6 +7408,242 @@
         <a:xfrm>
           <a:off x="11741810" y="2301096"/>
           <a:ext cx="771056" cy="1023129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302285</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9217685" y="10077450"/>
+          <a:ext cx="5012666" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330860</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9246260" y="8439150"/>
+          <a:ext cx="4984090" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464210</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>549466</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12122810" y="3739372"/>
+          <a:ext cx="771056" cy="442104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="37000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273710</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358966</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11246510" y="3748897"/>
+          <a:ext cx="771056" cy="442104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7854,8 +7863,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13010030" y="1961029"/>
-          <a:ext cx="11257143" cy="8000000"/>
+          <a:off x="13092829" y="1967255"/>
+          <a:ext cx="11326868" cy="8028015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9962,15 +9971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>102544</xdr:colOff>
+      <xdr:colOff>134295</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>142028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>198593</xdr:colOff>
+      <xdr:colOff>169335</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>70970</xdr:rowOff>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9979,8 +9988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29682961" y="4280111"/>
-          <a:ext cx="783965" cy="828526"/>
+          <a:off x="29714712" y="4280111"/>
+          <a:ext cx="722956" cy="778722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10199,6 +10208,405 @@
             </a:rPr>
             <a:t>kN-M</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>87841</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15909924" y="8099137"/>
+          <a:ext cx="5330825" cy="145279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>87841</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>98137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15909924" y="9093970"/>
+          <a:ext cx="5330825" cy="145279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>585259</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677335</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16407342" y="9485554"/>
+          <a:ext cx="92076" cy="166446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>299508</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27128258" y="8490720"/>
+          <a:ext cx="4822826" cy="145280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>299508</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27128258" y="9601970"/>
+          <a:ext cx="4822826" cy="145280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27149425" y="9982970"/>
+          <a:ext cx="92076" cy="166446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>310092</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>55803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16132175" y="18047470"/>
+          <a:ext cx="568325" cy="124113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15499,20 +15907,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556713</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>151230</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>654080</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>113967</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15532,8 +15940,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2614113" y="1780005"/>
-          <a:ext cx="6269567" cy="10278312"/>
+          <a:off x="1438275" y="23231475"/>
+          <a:ext cx="9934575" cy="23383875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15548,81 +15956,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>127567</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>448229</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>30930</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15900967" y="14837568"/>
-          <a:ext cx="1006462" cy="214287"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>392106</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>67306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="52271"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15892463" y="24853106"/>
-          <a:ext cx="958843" cy="188750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -15648,7 +15981,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15682,26 +16015,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>95334</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213560</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>7645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>337804</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>175544</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>404060</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15715,8 +16048,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="22717209"/>
-          <a:ext cx="9939004" cy="21978185"/>
+          <a:off x="1585160" y="13037845"/>
+          <a:ext cx="11849100" cy="10041730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15737,26 +16070,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>261185</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>17170</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>451685</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>105275</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293989</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15770,8 +16103,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1632785" y="12866395"/>
-          <a:ext cx="11849100" cy="10041730"/>
+          <a:off x="2533650" y="847725"/>
+          <a:ext cx="6675739" cy="12163166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15786,6 +16119,43 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39681</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>29206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="52271"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="452438" y="23729156"/>
+          <a:ext cx="958843" cy="188750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -16205,41 +16575,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -16261,118 +16631,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42957</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="146"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -16412,8 +16782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP118"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="A13" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16431,14 +16801,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -16449,12 +16819,12 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
@@ -16465,12 +16835,12 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -16481,12 +16851,12 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
@@ -17738,9 +18108,14 @@
       <c r="AP34" s="47"/>
     </row>
     <row r="35" spans="1:42">
-      <c r="A35" s="30"/>
+      <c r="A35" s="30" t="s">
+        <v>232</v>
+      </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="31">
+        <f>0.87*B10*C21*(B7-0.42*C18)</f>
+        <v>128511455.33544959</v>
+      </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
@@ -21961,14 +22336,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -21982,12 +22357,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22001,12 +22376,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22020,12 +22395,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22183,14 +22558,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -22204,12 +22579,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22223,12 +22598,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22242,12 +22617,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22276,8 +22651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22288,14 +22663,14 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -22309,12 +22684,12 @@
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
@@ -22328,12 +22703,12 @@
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
       <c r="N3" s="66"/>
@@ -22347,12 +22722,12 @@
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -22404,24 +22779,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="157"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="183"/>
       <c r="Q1" s="114"/>
       <c r="R1" s="114"/>
       <c r="S1" s="114"/>
@@ -22431,22 +22806,22 @@
       <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
       <c r="Q2" s="114"/>
       <c r="R2" s="114"/>
       <c r="S2" s="114"/>
@@ -22456,22 +22831,22 @@
       <c r="W2" s="114"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
       <c r="Q3" s="114"/>
       <c r="R3" s="114"/>
       <c r="S3" s="114"/>
@@ -22481,22 +22856,22 @@
       <c r="W3" s="114"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="163"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="114"/>
       <c r="R4" s="114"/>
       <c r="S4" s="114"/>
@@ -22612,459 +22987,459 @@
         <v>117</v>
       </c>
       <c r="D10" s="93"/>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="153" t="s">
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="153" t="s">
+      <c r="I10" s="172"/>
+      <c r="J10" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153" t="s">
+      <c r="K10" s="172"/>
+      <c r="L10" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="153" t="s">
+      <c r="M10" s="172"/>
+      <c r="N10" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="187"/>
-      <c r="P10" s="154"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="E11" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="169"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="175"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="180"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="184"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186" t="s">
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="184"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="181" t="s">
+      <c r="A14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="179" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="D15" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="169"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="181" t="s">
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="184"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="179" t="s">
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173" t="s">
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="184"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="179" t="s">
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="170" t="s">
+      <c r="D19" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="166"/>
       <c r="H19" s="127"/>
       <c r="I19" s="128"/>
       <c r="J19" s="127"/>
       <c r="K19" s="128"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="165"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="123"/>
       <c r="O19" s="124"/>
       <c r="P19" s="125"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="184"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="126"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="175"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
       <c r="H20" s="127"/>
       <c r="I20" s="128"/>
       <c r="J20" s="127"/>
       <c r="K20" s="128"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="165"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="157"/>
       <c r="N20" s="123"/>
       <c r="O20" s="124"/>
       <c r="P20" s="125"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="184"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="159"/>
+      <c r="B21" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="184"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="180"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="181" t="s">
+      <c r="E22" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="184"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="176" t="s">
+      <c r="E23" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="184"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="181" t="s">
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="184"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="159"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="176" t="s">
+      <c r="E25" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="181" t="s">
+      <c r="A26" s="159"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
       <c r="Q26" s="86"/>
       <c r="R26" s="86"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="184"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="179" t="s">
+      <c r="A27" s="159"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="176" t="s">
+      <c r="E27" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
       <c r="Q27" s="86"/>
       <c r="R27" s="86"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173" t="s">
+      <c r="A28" s="159"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="169"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="86"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="179" t="s">
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="176" t="s">
+      <c r="E29" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="127"/>
       <c r="I29" s="128"/>
       <c r="J29" s="127"/>
       <c r="K29" s="128"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="165"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="157"/>
       <c r="N29" s="123"/>
       <c r="O29" s="124"/>
       <c r="P29" s="125"/>
@@ -23072,19 +23447,19 @@
       <c r="R29" s="86"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="184"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="175"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="127"/>
       <c r="I30" s="128"/>
       <c r="J30" s="127"/>
       <c r="K30" s="128"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="165"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="157"/>
       <c r="N30" s="123"/>
       <c r="O30" s="124"/>
       <c r="P30" s="125"/>
@@ -23092,230 +23467,230 @@
       <c r="R30" s="86"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="184"/>
-      <c r="B31" s="183" t="s">
+      <c r="A31" s="159"/>
+      <c r="B31" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="160" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="176" t="s">
+      <c r="E31" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="175"/>
       <c r="Q31" s="86"/>
       <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="180"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="181" t="s">
+      <c r="E32" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="175"/>
       <c r="Q32" s="86"/>
       <c r="R32" s="86"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186" t="s">
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="175"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="181" t="s">
+      <c r="A34" s="159"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="169"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="175"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="184"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="179" t="s">
+      <c r="A35" s="159"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="176" t="s">
+      <c r="E35" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="169"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="175"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="181" t="s">
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="169"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="175"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="184"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="179" t="s">
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="176" t="s">
+      <c r="E37" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="169"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="175"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="173" t="s">
+      <c r="A38" s="159"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="175"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="127"/>
       <c r="I38" s="128"/>
       <c r="J38" s="127"/>
       <c r="K38" s="128"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="165"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="157"/>
       <c r="N38" s="123"/>
       <c r="O38" s="124"/>
       <c r="P38" s="125"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="184"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="179" t="s">
+      <c r="A39" s="159"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="170" t="s">
+      <c r="D39" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="176" t="s">
+      <c r="E39" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="178"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="166"/>
       <c r="H39" s="95"/>
       <c r="I39" s="128"/>
       <c r="J39" s="127"/>
       <c r="K39" s="128"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="165"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="157"/>
       <c r="N39" s="123"/>
       <c r="O39" s="124"/>
       <c r="P39" s="125"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="169"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="175"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="88"/>
@@ -23339,27 +23714,127 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C29:C30"/>
@@ -23384,127 +23859,27 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A11:A40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23529,66 +23904,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="200"/>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200" t="s">
+      <c r="A1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="194"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -23605,10 +23980,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -23701,14 +24076,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -23740,12 +24115,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="201"/>
-      <c r="B5" s="192" t="s">
+      <c r="A5" s="195"/>
+      <c r="B5" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="16"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -23778,12 +24153,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="201"/>
-      <c r="B6" s="192" t="s">
+      <c r="A6" s="195"/>
+      <c r="B6" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="16"/>
       <c r="F6" s="108"/>
       <c r="G6" s="108"/>
@@ -23816,12 +24191,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="201"/>
-      <c r="B7" s="192" t="s">
+      <c r="A7" s="195"/>
+      <c r="B7" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="16"/>
       <c r="F7" s="108"/>
       <c r="G7" s="108"/>
@@ -23891,66 +24266,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="200"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="194"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="200" t="s">
+      <c r="I10" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -23967,10 +24342,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -24067,10 +24442,10 @@
       <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="199"/>
+      <c r="D12" s="204"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -24103,13 +24478,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="191" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -24147,9 +24522,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="190"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="23" t="s">
         <v>134</v>
       </c>
@@ -24185,9 +24560,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="190"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="23" t="s">
         <v>135</v>
       </c>
@@ -24223,9 +24598,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="190"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="23" t="s">
         <v>136</v>
       </c>
@@ -24261,9 +24636,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="190"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
       <c r="D17" s="23" t="s">
         <v>137</v>
       </c>
@@ -24299,9 +24674,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="190"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
       <c r="D18" s="23" t="s">
         <v>138</v>
       </c>
@@ -24337,9 +24712,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="190"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="129" t="s">
         <v>223</v>
       </c>
@@ -24375,9 +24750,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="190"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="195" t="s">
+      <c r="A20" s="198"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="191" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -24415,9 +24790,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="190"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="23" t="s">
         <v>134</v>
       </c>
@@ -24453,9 +24828,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="190"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="23" t="s">
         <v>135</v>
       </c>
@@ -24491,9 +24866,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="190"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
       <c r="D23" s="23" t="s">
         <v>136</v>
       </c>
@@ -24529,9 +24904,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="190"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
@@ -24567,9 +24942,9 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="190"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
       <c r="D25" s="23" t="s">
         <v>138</v>
       </c>
@@ -24605,9 +24980,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="190"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="196"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="129" t="s">
         <v>223</v>
       </c>
@@ -24643,9 +25018,9 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="190"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="195" t="s">
+      <c r="A27" s="198"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="191" t="s">
         <v>140</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -24683,9 +25058,9 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="190"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="192"/>
       <c r="D28" s="23" t="s">
         <v>134</v>
       </c>
@@ -24721,9 +25096,9 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="190"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="23" t="s">
         <v>135</v>
       </c>
@@ -24759,9 +25134,9 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="190"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="23" t="s">
         <v>136</v>
       </c>
@@ -24797,9 +25172,9 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="190"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
       <c r="D31" s="23" t="s">
         <v>137</v>
       </c>
@@ -24835,9 +25210,9 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="190"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="192"/>
       <c r="D32" s="23" t="s">
         <v>138</v>
       </c>
@@ -24873,9 +25248,9 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="190"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="131"/>
-      <c r="C33" s="196"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="132" t="s">
         <v>223</v>
       </c>
@@ -24911,8 +25286,8 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="190"/>
-      <c r="B34" s="189" t="s">
+      <c r="A34" s="198"/>
+      <c r="B34" s="197" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="130" t="s">
@@ -24953,9 +25328,9 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="190"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="195" t="s">
+      <c r="A35" s="198"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="191" t="s">
         <v>200</v>
       </c>
       <c r="D35" s="111" t="s">
@@ -24993,9 +25368,9 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="190"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="196"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="193"/>
       <c r="D36" s="111" t="s">
         <v>202</v>
       </c>
@@ -25042,14 +25417,14 @@
       <c r="AS36" s="31"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="190"/>
-      <c r="B37" s="188" t="s">
+      <c r="A37" s="198"/>
+      <c r="B37" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -25093,12 +25468,12 @@
       <c r="AS37" s="31"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="190"/>
-      <c r="B38" s="188"/>
-      <c r="C38" s="193" t="s">
+      <c r="A38" s="198"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="201" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="194"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -25142,11 +25517,11 @@
       <c r="AS38" s="31"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="190"/>
-      <c r="B39" s="188" t="s">
+      <c r="A39" s="198"/>
+      <c r="B39" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="196" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="109" t="s">
@@ -25195,9 +25570,9 @@
       <c r="AS39" s="31"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="190"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
+      <c r="A40" s="198"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="196"/>
       <c r="D40" s="109" t="s">
         <v>18</v>
       </c>
@@ -25244,9 +25619,9 @@
       <c r="AS40" s="31"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="190"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
       <c r="D41" s="109" t="s">
         <v>19</v>
       </c>
@@ -25293,9 +25668,9 @@
       <c r="AS41" s="31"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="190"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="109" t="s">
         <v>20</v>
       </c>
@@ -25342,9 +25717,9 @@
       <c r="AS42" s="31"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="190"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="198"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="109" t="s">
@@ -25393,9 +25768,9 @@
       <c r="AS43" s="31"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="190"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
       <c r="D44" s="109" t="s">
         <v>18</v>
       </c>
@@ -25442,9 +25817,9 @@
       <c r="AS44" s="31"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="190"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
       <c r="D45" s="109" t="s">
         <v>19</v>
       </c>
@@ -25491,9 +25866,9 @@
       <c r="AS45" s="31"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="190"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="188" t="s">
+      <c r="A46" s="198"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="109" t="s">
@@ -25542,9 +25917,9 @@
       <c r="AS46" s="31"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="191"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="188"/>
+      <c r="A47" s="199"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
       <c r="D47" s="109" t="s">
         <v>18</v>
       </c>
@@ -25608,16 +25983,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A13:A47"/>
@@ -25634,6 +25999,16 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B13:B32"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25653,133 +26028,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="208"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="209"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="209"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="211"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="210"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="212"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="214"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="213"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="115">
         <v>1</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="203"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="215"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="116">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="203"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="215"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="116">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="203"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="215"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
@@ -25796,20 +26171,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="215"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
@@ -25826,20 +26201,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="203"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="215"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
@@ -25856,20 +26231,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="203"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="215"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
@@ -25886,20 +26261,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="203"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="215"/>
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
@@ -25916,20 +26291,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="203"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="215"/>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
@@ -25946,20 +26321,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="203"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="215"/>
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
@@ -25976,20 +26351,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="215"/>
       <c r="W14" s="40"/>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
@@ -26006,20 +26381,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="203"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="215"/>
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
@@ -26036,20 +26411,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="203"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="215"/>
       <c r="W16" s="40"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -26066,20 +26441,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="203"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="215"/>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
@@ -26096,20 +26471,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="203"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="215"/>
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
@@ -26126,20 +26501,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="203"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="215"/>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
@@ -26156,20 +26531,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="203"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="215"/>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
@@ -26186,20 +26561,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="203"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="215"/>
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
@@ -26216,20 +26591,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="203"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="215"/>
       <c r="W22" s="40"/>
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
@@ -26246,20 +26621,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="203"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="215"/>
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
@@ -26276,20 +26651,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="203"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="215"/>
       <c r="W24" s="40"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="40"/>
@@ -26306,20 +26681,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="203"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="215"/>
       <c r="W25" s="40"/>
       <c r="X25" s="40"/>
       <c r="Y25" s="40"/>
@@ -26336,20 +26711,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="203"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="215"/>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
@@ -26366,20 +26741,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="203"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="215"/>
       <c r="W27" s="40"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="40"/>
@@ -26396,20 +26771,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="215"/>
       <c r="W28" s="40"/>
       <c r="X28" s="40"/>
       <c r="Y28" s="40"/>
@@ -26426,20 +26801,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="203"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="215"/>
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
       <c r="Y29" s="40"/>
@@ -26456,20 +26831,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="202"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="203"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="215"/>
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="40"/>
@@ -26486,20 +26861,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="203"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="215"/>
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="40"/>
@@ -26516,20 +26891,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="203"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="215"/>
       <c r="W32" s="40"/>
       <c r="X32" s="40"/>
       <c r="Y32" s="40"/>
@@ -26546,20 +26921,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="203"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="215"/>
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
       <c r="Y33" s="40"/>
@@ -26576,20 +26951,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="202"/>
-      <c r="O34" s="203"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="214"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="214"/>
+      <c r="N34" s="214"/>
+      <c r="O34" s="215"/>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="40"/>
@@ -26606,20 +26981,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="202"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="202"/>
-      <c r="O35" s="203"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="214"/>
+      <c r="L35" s="214"/>
+      <c r="M35" s="214"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="215"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
       <c r="Y35" s="40"/>
@@ -26636,20 +27011,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="203"/>
+      <c r="B36" s="214"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="214"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="214"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="215"/>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="40"/>
@@ -26666,20 +27041,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="202"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="202"/>
-      <c r="O37" s="203"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="214"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="215"/>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="40"/>
@@ -26696,20 +27071,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="203"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="214"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="214"/>
+      <c r="N38" s="214"/>
+      <c r="O38" s="215"/>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="40"/>
@@ -26726,20 +27101,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="202"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="202"/>
-      <c r="O39" s="203"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="214"/>
+      <c r="N39" s="214"/>
+      <c r="O39" s="215"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
@@ -26756,20 +27131,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="202"/>
-      <c r="O40" s="203"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="215"/>
       <c r="W40" s="40"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="40"/>
@@ -26786,20 +27161,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="203"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="215"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
@@ -26816,20 +27191,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
+      <c r="O42" s="217"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
@@ -26879,36 +27254,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -26918,6 +27263,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26928,8 +27303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S95" sqref="S95"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26945,14 +27320,14 @@
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
       <c r="O1" s="118"/>
@@ -27003,12 +27378,12 @@
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="118"/>
       <c r="N2" s="118"/>
       <c r="O2" s="118"/>
@@ -27059,12 +27434,12 @@
       <c r="D3" s="118"/>
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="118"/>
       <c r="N3" s="118"/>
       <c r="O3" s="118"/>
@@ -27115,12 +27490,12 @@
       <c r="D4" s="118"/>
       <c r="E4" s="118"/>
       <c r="F4" s="118"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="118"/>
       <c r="N4" s="118"/>
       <c r="O4" s="118"/>
@@ -28262,77 +28637,77 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16">
@@ -28383,74 +28758,74 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="82" t="s">
@@ -28574,73 +28949,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -28686,12 +29061,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="151" t="s">
+      <c r="I56" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
       <c r="BU56" t="s">
         <v>164</v>
       </c>
@@ -28738,73 +29113,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -28829,10 +29204,10 @@
       <c r="CM38" s="122"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -28870,70 +29245,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
@@ -28954,13 +29329,13 @@
       </c>
     </row>
     <row r="38" spans="91:91">
-      <c r="CM38" s="215"/>
+      <c r="CM38" s="142"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -28994,73 +29369,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
@@ -29085,7 +29460,7 @@
   <dimension ref="A1:CM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AT33" sqref="AT33"/>
+      <selection activeCell="T134" sqref="T134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -29094,70 +29469,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="217"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
     </row>
@@ -29166,14 +29541,24 @@
         <v>28</v>
       </c>
     </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
     <row r="38" spans="91:91">
-      <c r="CM38" s="215"/>
+      <c r="CM38" s="142"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="24" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
